--- a/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/R_resmat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,5619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.18596890137596586</v>
+      </c>
+      <c r="B1">
+        <v>0.83851644534041581</v>
+      </c>
+      <c r="C1">
+        <v>0.27591481053565758</v>
+      </c>
+      <c r="D1">
+        <v>0.90928276067150982</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.049043142078903437</v>
+      </c>
+      <c r="B2">
+        <v>0.91653485852225691</v>
+      </c>
+      <c r="C2">
+        <v>0.58418980267466836</v>
+      </c>
+      <c r="D2">
+        <v>0.97548311513340957</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.10557165182882931</v>
+      </c>
+      <c r="B3">
+        <v>0.85809145509386375</v>
+      </c>
+      <c r="C3">
+        <v>0.52300582647490623</v>
+      </c>
+      <c r="D3">
+        <v>0.94851972817784336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.095870498017188527</v>
+      </c>
+      <c r="B4">
+        <v>0.85943755326642857</v>
+      </c>
+      <c r="C4">
+        <v>0.54861935468515755</v>
+      </c>
+      <c r="D4">
+        <v>0.95275133334167328</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.10188642439672184</v>
+      </c>
+      <c r="B5">
+        <v>0.89389218776124157</v>
+      </c>
+      <c r="C5">
+        <v>0.47000122396228905</v>
+      </c>
+      <c r="D5">
+        <v>0.94992251396540928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.11620835315520345</v>
+      </c>
+      <c r="B6">
+        <v>0.86951145083784365</v>
+      </c>
+      <c r="C6">
+        <v>0.49498324079582573</v>
+      </c>
+      <c r="D6">
+        <v>0.94368795953868245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.091246912005195954</v>
+      </c>
+      <c r="B7">
+        <v>0.89474922242241506</v>
+      </c>
+      <c r="C7">
+        <v>0.47988896553073024</v>
+      </c>
+      <c r="D7">
+        <v>0.95508441485639628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.058085011064199513</v>
+      </c>
+      <c r="B8">
+        <v>0.91694515646306585</v>
+      </c>
+      <c r="C8">
+        <v>0.57563601752455662</v>
+      </c>
+      <c r="D8">
+        <v>0.97097921559576972</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.16551899954832255</v>
+      </c>
+      <c r="B9">
+        <v>0.81422760150439077</v>
+      </c>
+      <c r="C9">
+        <v>0.47970919938183282</v>
+      </c>
+      <c r="D9">
+        <v>0.92483962679805043</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.13401616602292327</v>
+      </c>
+      <c r="B10">
+        <v>0.87193339086776356</v>
+      </c>
+      <c r="C10">
+        <v>0.4361115351588693</v>
+      </c>
+      <c r="D10">
+        <v>0.93548966867033501</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.11153844290841806</v>
+      </c>
+      <c r="B11">
+        <v>0.83876748757352304</v>
+      </c>
+      <c r="C11">
+        <v>0.55205933741577073</v>
+      </c>
+      <c r="D11">
+        <v>0.94660787894346776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.12392809590918313</v>
+      </c>
+      <c r="B12">
+        <v>0.85416148607926301</v>
+      </c>
+      <c r="C12">
+        <v>0.48957339762213281</v>
+      </c>
+      <c r="D12">
+        <v>0.9400377662329481</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.059978831906090643</v>
+      </c>
+      <c r="B13">
+        <v>0.89697718129069137</v>
+      </c>
+      <c r="C13">
+        <v>0.60321073643027157</v>
+      </c>
+      <c r="D13">
+        <v>0.97008242727476823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.079676433513797829</v>
+      </c>
+      <c r="B14">
+        <v>0.88256802787948829</v>
+      </c>
+      <c r="C14">
+        <v>0.56193415099362709</v>
+      </c>
+      <c r="D14">
+        <v>0.96043585550346167</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.096633835473344115</v>
+      </c>
+      <c r="B15">
+        <v>0.84882136901718641</v>
+      </c>
+      <c r="C15">
+        <v>0.56213611421572329</v>
+      </c>
+      <c r="D15">
+        <v>0.95253602748858912</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.083404071520056147</v>
+      </c>
+      <c r="B16">
+        <v>0.87632839642147542</v>
+      </c>
+      <c r="C16">
+        <v>0.53465654086131609</v>
+      </c>
+      <c r="D16">
+        <v>0.95885412136173265</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.053844550279822323</v>
+      </c>
+      <c r="B17">
+        <v>0.89274435258558771</v>
+      </c>
+      <c r="C17">
+        <v>0.63619365832594965</v>
+      </c>
+      <c r="D17">
+        <v>0.97311621045204533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.066032526194750765</v>
+      </c>
+      <c r="B18">
+        <v>0.88073056788452886</v>
+      </c>
+      <c r="C18">
+        <v>0.62650520442085667</v>
+      </c>
+      <c r="D18">
+        <v>0.96713992128625792</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.11686509848182458</v>
+      </c>
+      <c r="B19">
+        <v>0.81031613313850925</v>
+      </c>
+      <c r="C19">
+        <v>0.55336235916527043</v>
+      </c>
+      <c r="D19">
+        <v>0.94403052867741177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.060692631179390881</v>
+      </c>
+      <c r="B20">
+        <v>0.91213935233457888</v>
+      </c>
+      <c r="C20">
+        <v>0.53826549630129306</v>
+      </c>
+      <c r="D20">
+        <v>0.96967144247662873</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.16037324167506209</v>
+      </c>
+      <c r="B21">
+        <v>0.7678166427847487</v>
+      </c>
+      <c r="C21">
+        <v>0.52649091647559654</v>
+      </c>
+      <c r="D21">
+        <v>0.92568882878902981</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.21394604172212003</v>
+      </c>
+      <c r="B22">
+        <v>0.76716033826825358</v>
+      </c>
+      <c r="C22">
+        <v>0.38384346311177214</v>
+      </c>
+      <c r="D22">
+        <v>0.90101689887557124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.14119585355377626</v>
+      </c>
+      <c r="B23">
+        <v>0.78545321344572638</v>
+      </c>
+      <c r="C23">
+        <v>0.53160503744100451</v>
+      </c>
+      <c r="D23">
+        <v>0.93317744627292099</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.17078471654861149</v>
+      </c>
+      <c r="B24">
+        <v>0.83486151598961744</v>
+      </c>
+      <c r="C24">
+        <v>0.29215560569831434</v>
+      </c>
+      <c r="D24">
+        <v>0.91591404843302593</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.052598198807661409</v>
+      </c>
+      <c r="B25">
+        <v>0.80559646999013823</v>
+      </c>
+      <c r="C25">
+        <v>0.74227220049728793</v>
+      </c>
+      <c r="D25">
+        <v>0.97372345073499367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.12965508661711192</v>
+      </c>
+      <c r="B26">
+        <v>0.76466222209584001</v>
+      </c>
+      <c r="C26">
+        <v>0.59959405379689024</v>
+      </c>
+      <c r="D26">
+        <v>0.93974331062938654</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.11670445276523593</v>
+      </c>
+      <c r="B27">
+        <v>0.83697057178132339</v>
+      </c>
+      <c r="C27">
+        <v>0.5031451896684207</v>
+      </c>
+      <c r="D27">
+        <v>0.94248698895104499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.096254483616045272</v>
+      </c>
+      <c r="B28">
+        <v>0.85912999841045001</v>
+      </c>
+      <c r="C28">
+        <v>0.42283643962757633</v>
+      </c>
+      <c r="D28">
+        <v>0.95192229827895825</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.1959931815134742</v>
+      </c>
+      <c r="B29">
+        <v>0.78216206265290378</v>
+      </c>
+      <c r="C29">
+        <v>0.38208306939528747</v>
+      </c>
+      <c r="D29">
+        <v>0.9077876309589934</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.21450601930156202</v>
+      </c>
+      <c r="B30">
+        <v>0.75826194342252495</v>
+      </c>
+      <c r="C30">
+        <v>0.4494399933524148</v>
+      </c>
+      <c r="D30">
+        <v>0.90636394737714854</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.13261797150465696</v>
+      </c>
+      <c r="B31">
+        <v>0.81672263862720007</v>
+      </c>
+      <c r="C31">
+        <v>0.51688884428120063</v>
+      </c>
+      <c r="D31">
+        <v>0.93670849296042702</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.21155127892281303</v>
+      </c>
+      <c r="B32">
+        <v>0.78580222185029514</v>
+      </c>
+      <c r="C32">
+        <v>0.37083067556646104</v>
+      </c>
+      <c r="D32">
+        <v>0.90252561305619394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.14994556886094509</v>
+      </c>
+      <c r="B33">
+        <v>0.76641384557740166</v>
+      </c>
+      <c r="C33">
+        <v>0.50617031416413305</v>
+      </c>
+      <c r="D33">
+        <v>0.92885257677752842</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.034516231211746552</v>
+      </c>
+      <c r="B34">
+        <v>0.85664448081105793</v>
+      </c>
+      <c r="C34">
+        <v>0.7774565879743579</v>
+      </c>
+      <c r="D34">
+        <v>0.98274188439412669</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.098084538441230815</v>
+      </c>
+      <c r="B35">
+        <v>0.79233024743152036</v>
+      </c>
+      <c r="C35">
+        <v>0.63291423920844581</v>
+      </c>
+      <c r="D35">
+        <v>0.95235790482336502</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.089298340255482306</v>
+      </c>
+      <c r="B36">
+        <v>0.83541571571811502</v>
+      </c>
+      <c r="C36">
+        <v>0.58549372075896466</v>
+      </c>
+      <c r="D36">
+        <v>0.9557209422502484</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.10928288206638723</v>
+      </c>
+      <c r="B37">
+        <v>0.83191408415141432</v>
+      </c>
+      <c r="C37">
+        <v>0.51601214158917375</v>
+      </c>
+      <c r="D37">
+        <v>0.9462709112193648</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.18081266632376949</v>
+      </c>
+      <c r="B38">
+        <v>0.76245437618279255</v>
+      </c>
+      <c r="C38">
+        <v>0.48269709899428292</v>
+      </c>
+      <c r="D38">
+        <v>0.91810608940671334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.16476051251182389</v>
+      </c>
+      <c r="B39">
+        <v>0.74661193160450146</v>
+      </c>
+      <c r="C39">
+        <v>0.54269546832725357</v>
+      </c>
+      <c r="D39">
+        <v>0.92557895711649263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.19685492151973008</v>
+      </c>
+      <c r="B40">
+        <v>0.76133162481171013</v>
+      </c>
+      <c r="C40">
+        <v>0.48977475540755749</v>
+      </c>
+      <c r="D40">
+        <v>0.91238863625250599</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.22242414435496249</v>
+      </c>
+      <c r="B41">
+        <v>0.82642292662521233</v>
+      </c>
+      <c r="C41">
+        <v>0.27964090099414673</v>
+      </c>
+      <c r="D41">
+        <v>0.89138041438294113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.22029243672530249</v>
+      </c>
+      <c r="B42">
+        <v>0.81372209796586681</v>
+      </c>
+      <c r="C42">
+        <v>0.41021079199831262</v>
+      </c>
+      <c r="D42">
+        <v>0.8990792041599539</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.27342052099946834</v>
+      </c>
+      <c r="B43">
+        <v>0.79790309592301378</v>
+      </c>
+      <c r="C43">
+        <v>0.26244945634525962</v>
+      </c>
+      <c r="D43">
+        <v>0.86977671451355654</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.15678082263085022</v>
+      </c>
+      <c r="B44">
+        <v>0.86119253181776134</v>
+      </c>
+      <c r="C44">
+        <v>0.43749911821177329</v>
+      </c>
+      <c r="D44">
+        <v>0.92519626520643283</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.16584859955146711</v>
+      </c>
+      <c r="B45">
+        <v>0.8642751766337412</v>
+      </c>
+      <c r="C45">
+        <v>0.40395369306484202</v>
+      </c>
+      <c r="D45">
+        <v>0.92023689626210103</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.12860088707435574</v>
+      </c>
+      <c r="B46">
+        <v>0.87532693491228419</v>
+      </c>
+      <c r="C46">
+        <v>0.46879130589278462</v>
+      </c>
+      <c r="D46">
+        <v>0.93710194716555262</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.17192317266999865</v>
+      </c>
+      <c r="B47">
+        <v>0.84524757566085229</v>
+      </c>
+      <c r="C47">
+        <v>0.44162746795464786</v>
+      </c>
+      <c r="D47">
+        <v>0.9193253671894448</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.15305637638333627</v>
+      </c>
+      <c r="B48">
+        <v>0.87069106420642706</v>
+      </c>
+      <c r="C48">
+        <v>0.40845974439996102</v>
+      </c>
+      <c r="D48">
+        <v>0.92575242546561864</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.17342137949204783</v>
+      </c>
+      <c r="B49">
+        <v>0.85958852497154903</v>
+      </c>
+      <c r="C49">
+        <v>0.39190809810534488</v>
+      </c>
+      <c r="D49">
+        <v>0.91577554084402191</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.15340980521385331</v>
+      </c>
+      <c r="B50">
+        <v>0.85505010988847907</v>
+      </c>
+      <c r="C50">
+        <v>0.43018897125282674</v>
+      </c>
+      <c r="D50">
+        <v>0.92483355111691856</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.13702908225460031</v>
+      </c>
+      <c r="B51">
+        <v>0.86258880730214949</v>
+      </c>
+      <c r="C51">
+        <v>0.45301518199704088</v>
+      </c>
+      <c r="D51">
+        <v>0.9327999329218345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.14213800119374298</v>
+      </c>
+      <c r="B52">
+        <v>0.86164681979209279</v>
+      </c>
+      <c r="C52">
+        <v>0.44971237640907319</v>
+      </c>
+      <c r="D52">
+        <v>0.93016791233872265</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.14245486674945076</v>
+      </c>
+      <c r="B53">
+        <v>0.85033348124353336</v>
+      </c>
+      <c r="C53">
+        <v>0.46954073468694024</v>
+      </c>
+      <c r="D53">
+        <v>0.93038176202757339</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.20486002214253596</v>
+      </c>
+      <c r="B54">
+        <v>0.83771771036948206</v>
+      </c>
+      <c r="C54">
+        <v>0.27859767617210385</v>
+      </c>
+      <c r="D54">
+        <v>0.89904741752283202</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.17729189333601789</v>
+      </c>
+      <c r="B55">
+        <v>0.84113066344287646</v>
+      </c>
+      <c r="C55">
+        <v>0.30727369479652111</v>
+      </c>
+      <c r="D55">
+        <v>0.91187031092904425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.20177250518238687</v>
+      </c>
+      <c r="B56">
+        <v>0.83578069414485701</v>
+      </c>
+      <c r="C56">
+        <v>0.29509488482762952</v>
+      </c>
+      <c r="D56">
+        <v>0.90080377623871</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.11795623767860924</v>
+      </c>
+      <c r="B57">
+        <v>0.8755362818766893</v>
+      </c>
+      <c r="C57">
+        <v>0.48109028657827935</v>
+      </c>
+      <c r="D57">
+        <v>0.94206814713437714</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.13745334711169349</v>
+      </c>
+      <c r="B58">
+        <v>0.85076100613859129</v>
+      </c>
+      <c r="C58">
+        <v>0.48089505355992512</v>
+      </c>
+      <c r="D58">
+        <v>0.93300775447056894</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.12493564961086942</v>
+      </c>
+      <c r="B59">
+        <v>0.86155606439992405</v>
+      </c>
+      <c r="C59">
+        <v>0.48607968629990705</v>
+      </c>
+      <c r="D59">
+        <v>0.93816474372562675</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.15076197946817294</v>
+      </c>
+      <c r="B60">
+        <v>0.84718846118570146</v>
+      </c>
+      <c r="C60">
+        <v>0.46283348772863586</v>
+      </c>
+      <c r="D60">
+        <v>0.9270202132651908</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.13547553689649605</v>
+      </c>
+      <c r="B61">
+        <v>0.82200619460266178</v>
+      </c>
+      <c r="C61">
+        <v>0.33840485462465614</v>
+      </c>
+      <c r="D61">
+        <v>0.93227101917789557</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.10987874454972152</v>
+      </c>
+      <c r="B62">
+        <v>0.83713778188373755</v>
+      </c>
+      <c r="C62">
+        <v>0.37351150366202335</v>
+      </c>
+      <c r="D62">
+        <v>0.94506062772513921</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.10438254667529479</v>
+      </c>
+      <c r="B63">
+        <v>0.85933164864701173</v>
+      </c>
+      <c r="C63">
+        <v>0.36787944944647033</v>
+      </c>
+      <c r="D63">
+        <v>0.9478087266623525</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.20456865929302956</v>
+      </c>
+      <c r="B64">
+        <v>0.7761603816200725</v>
+      </c>
+      <c r="C64">
+        <v>0.27362975336381345</v>
+      </c>
+      <c r="D64">
+        <v>0.89857954626251013</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.15172849304079941</v>
+      </c>
+      <c r="B65">
+        <v>0.80731901402841866</v>
+      </c>
+      <c r="C65">
+        <v>0.32627115523301797</v>
+      </c>
+      <c r="D65">
+        <v>0.92418505907663895</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.13815989005134033</v>
+      </c>
+      <c r="B66">
+        <v>0.82003324834199254</v>
+      </c>
+      <c r="C66">
+        <v>0.34173656265081331</v>
+      </c>
+      <c r="D66">
+        <v>0.93103663407005866</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.15068449681484869</v>
+      </c>
+      <c r="B67">
+        <v>0.82276135093407476</v>
+      </c>
+      <c r="C67">
+        <v>0.31555418757890702</v>
+      </c>
+      <c r="D67">
+        <v>0.92480164973825074</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.11423388275536103</v>
+      </c>
+      <c r="B68">
+        <v>0.84312858123167822</v>
+      </c>
+      <c r="C68">
+        <v>0.37142050399546223</v>
+      </c>
+      <c r="D68">
+        <v>0.94295955696531064</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.10039001141326039</v>
+      </c>
+      <c r="B69">
+        <v>0.86615625575612409</v>
+      </c>
+      <c r="C69">
+        <v>0.3801848944573204</v>
+      </c>
+      <c r="D69">
+        <v>0.94980810629347567</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.12844559549771692</v>
+      </c>
+      <c r="B70">
+        <v>0.81325670713992615</v>
+      </c>
+      <c r="C70">
+        <v>0.38070070549739421</v>
+      </c>
+      <c r="D70">
+        <v>0.93588693276219836</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.16973906563942889</v>
+      </c>
+      <c r="B71">
+        <v>0.80648272665918674</v>
+      </c>
+      <c r="C71">
+        <v>0.30283930721671715</v>
+      </c>
+      <c r="D71">
+        <v>0.91561303829077567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.16038083627233277</v>
+      </c>
+      <c r="B72">
+        <v>0.80585052345627461</v>
+      </c>
+      <c r="C72">
+        <v>0.31767906911777588</v>
+      </c>
+      <c r="D72">
+        <v>0.91995278249469037</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.1672968878306165</v>
+      </c>
+      <c r="B73">
+        <v>0.81283911430407463</v>
+      </c>
+      <c r="C73">
+        <v>0.29685733788156304</v>
+      </c>
+      <c r="D73">
+        <v>0.91658450912219136</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.12150501835362375</v>
+      </c>
+      <c r="B74">
+        <v>0.84440758443159747</v>
+      </c>
+      <c r="C74">
+        <v>0.34778713579490411</v>
+      </c>
+      <c r="D74">
+        <v>0.9392644554667503</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.15329722728847989</v>
+      </c>
+      <c r="B75">
+        <v>0.80687724241690684</v>
+      </c>
+      <c r="C75">
+        <v>0.32022916221373837</v>
+      </c>
+      <c r="D75">
+        <v>0.92343233405090086</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.14947785338445418</v>
+      </c>
+      <c r="B76">
+        <v>0.83032879653132197</v>
+      </c>
+      <c r="C76">
+        <v>0.31211032635956965</v>
+      </c>
+      <c r="D76">
+        <v>0.92536853457374324</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.14890395269247148</v>
+      </c>
+      <c r="B77">
+        <v>0.82602073265248377</v>
+      </c>
+      <c r="C77">
+        <v>0.31561614483053241</v>
+      </c>
+      <c r="D77">
+        <v>0.92567250117077182</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.092733440295450789</v>
+      </c>
+      <c r="B78">
+        <v>0.86862120462669912</v>
+      </c>
+      <c r="C78">
+        <v>0.38566437222980454</v>
+      </c>
+      <c r="D78">
+        <v>0.95363327985227464</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.12928132384075613</v>
+      </c>
+      <c r="B79">
+        <v>0.82563072592774378</v>
+      </c>
+      <c r="C79">
+        <v>0.34790732659313267</v>
+      </c>
+      <c r="D79">
+        <v>0.93537981828933936</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.088565332532781538</v>
+      </c>
+      <c r="B80">
+        <v>0.86666226666241131</v>
+      </c>
+      <c r="C80">
+        <v>0.40182113725508917</v>
+      </c>
+      <c r="D80">
+        <v>0.95571733373360912</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.13547553689649605</v>
+      </c>
+      <c r="B81">
+        <v>0.82200619460266178</v>
+      </c>
+      <c r="C81">
+        <v>0.33840485462465614</v>
+      </c>
+      <c r="D81">
+        <v>0.93227101917789557</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.10987874454972152</v>
+      </c>
+      <c r="B82">
+        <v>0.83713778188373755</v>
+      </c>
+      <c r="C82">
+        <v>0.37351150366202335</v>
+      </c>
+      <c r="D82">
+        <v>0.94506062772513921</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.10438254667529479</v>
+      </c>
+      <c r="B83">
+        <v>0.85933164864701173</v>
+      </c>
+      <c r="C83">
+        <v>0.36787944944647033</v>
+      </c>
+      <c r="D83">
+        <v>0.9478087266623525</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.20456865929302956</v>
+      </c>
+      <c r="B84">
+        <v>0.7761603816200725</v>
+      </c>
+      <c r="C84">
+        <v>0.27362975336381345</v>
+      </c>
+      <c r="D84">
+        <v>0.89857954626251013</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.15172849304079941</v>
+      </c>
+      <c r="B85">
+        <v>0.80731901402841866</v>
+      </c>
+      <c r="C85">
+        <v>0.32627115523301797</v>
+      </c>
+      <c r="D85">
+        <v>0.92418505907663895</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.13815989005134033</v>
+      </c>
+      <c r="B86">
+        <v>0.82003324834199254</v>
+      </c>
+      <c r="C86">
+        <v>0.34173656265081331</v>
+      </c>
+      <c r="D86">
+        <v>0.93103663407005866</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.15068449681484869</v>
+      </c>
+      <c r="B87">
+        <v>0.82276135093407476</v>
+      </c>
+      <c r="C87">
+        <v>0.31555418757890702</v>
+      </c>
+      <c r="D87">
+        <v>0.92480164973825074</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.11423388275536103</v>
+      </c>
+      <c r="B88">
+        <v>0.84312858123167822</v>
+      </c>
+      <c r="C88">
+        <v>0.37142050399546223</v>
+      </c>
+      <c r="D88">
+        <v>0.94295955696531064</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.10039001141326039</v>
+      </c>
+      <c r="B89">
+        <v>0.86615625575612409</v>
+      </c>
+      <c r="C89">
+        <v>0.3801848944573204</v>
+      </c>
+      <c r="D89">
+        <v>0.94980810629347567</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.12844559549771692</v>
+      </c>
+      <c r="B90">
+        <v>0.81325670713992615</v>
+      </c>
+      <c r="C90">
+        <v>0.38070070549739421</v>
+      </c>
+      <c r="D90">
+        <v>0.93588693276219836</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.16973906563942889</v>
+      </c>
+      <c r="B91">
+        <v>0.80648272665918674</v>
+      </c>
+      <c r="C91">
+        <v>0.30283930721671715</v>
+      </c>
+      <c r="D91">
+        <v>0.91561303829077567</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.16038083627233277</v>
+      </c>
+      <c r="B92">
+        <v>0.80585052345627461</v>
+      </c>
+      <c r="C92">
+        <v>0.31767906911777588</v>
+      </c>
+      <c r="D92">
+        <v>0.91995278249469037</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.1672968878306165</v>
+      </c>
+      <c r="B93">
+        <v>0.81283911430407463</v>
+      </c>
+      <c r="C93">
+        <v>0.29685733788156304</v>
+      </c>
+      <c r="D93">
+        <v>0.91658450912219136</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.12150501835362375</v>
+      </c>
+      <c r="B94">
+        <v>0.84440758443159747</v>
+      </c>
+      <c r="C94">
+        <v>0.34778713579490411</v>
+      </c>
+      <c r="D94">
+        <v>0.9392644554667503</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.15329722728847989</v>
+      </c>
+      <c r="B95">
+        <v>0.80687724241690684</v>
+      </c>
+      <c r="C95">
+        <v>0.32022916221373837</v>
+      </c>
+      <c r="D95">
+        <v>0.92343233405090086</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.14947785338445418</v>
+      </c>
+      <c r="B96">
+        <v>0.83032879653132197</v>
+      </c>
+      <c r="C96">
+        <v>0.31211032635956965</v>
+      </c>
+      <c r="D96">
+        <v>0.92536853457374324</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.14890395269247148</v>
+      </c>
+      <c r="B97">
+        <v>0.82602073265248377</v>
+      </c>
+      <c r="C97">
+        <v>0.31561614483053241</v>
+      </c>
+      <c r="D97">
+        <v>0.92567250117077182</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.092733440295450789</v>
+      </c>
+      <c r="B98">
+        <v>0.86862120462669912</v>
+      </c>
+      <c r="C98">
+        <v>0.38566437222980454</v>
+      </c>
+      <c r="D98">
+        <v>0.95363327985227464</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.12928132384075613</v>
+      </c>
+      <c r="B99">
+        <v>0.82563072592774378</v>
+      </c>
+      <c r="C99">
+        <v>0.34790732659313267</v>
+      </c>
+      <c r="D99">
+        <v>0.93537981828933936</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.088565332532781538</v>
+      </c>
+      <c r="B100">
+        <v>0.86666226666241131</v>
+      </c>
+      <c r="C100">
+        <v>0.40182113725508917</v>
+      </c>
+      <c r="D100">
+        <v>0.95571733373360912</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.11494480010926644</v>
+      </c>
+      <c r="B101">
+        <v>0.64520014914433788</v>
+      </c>
+      <c r="C101">
+        <v>0.6279907042394226</v>
+      </c>
+      <c r="D101">
+        <v>0.94297246350278341</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.11953462250387981</v>
+      </c>
+      <c r="B102">
+        <v>0.6223242847218321</v>
+      </c>
+      <c r="C102">
+        <v>0.62545446953420958</v>
+      </c>
+      <c r="D102">
+        <v>0.9413750303239764</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.11175749190277035</v>
+      </c>
+      <c r="B103">
+        <v>0.70827478590476334</v>
+      </c>
+      <c r="C103">
+        <v>0.54888170242477474</v>
+      </c>
+      <c r="D103">
+        <v>0.94425169485702165</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.18946563647526263</v>
+      </c>
+      <c r="B104">
+        <v>0.66454201468186447</v>
+      </c>
+      <c r="C104">
+        <v>0.37321985611561437</v>
+      </c>
+      <c r="D104">
+        <v>0.90677469260936772</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.11390302185320444</v>
+      </c>
+      <c r="B105">
+        <v>0.75654082851442095</v>
+      </c>
+      <c r="C105">
+        <v>0.44998684711656994</v>
+      </c>
+      <c r="D105">
+        <v>0.94322421181989791</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.11401150483355876</v>
+      </c>
+      <c r="B106">
+        <v>0.73310259059444183</v>
+      </c>
+      <c r="C106">
+        <v>0.5013762481278683</v>
+      </c>
+      <c r="D106">
+        <v>0.94320693081480944</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.11370878235652142</v>
+      </c>
+      <c r="B107">
+        <v>0.65454268149815431</v>
+      </c>
+      <c r="C107">
+        <v>0.61809553248254501</v>
+      </c>
+      <c r="D107">
+        <v>0.94345248750748001</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.078934437543133201</v>
+      </c>
+      <c r="B108">
+        <v>0.7485844504692194</v>
+      </c>
+      <c r="C108">
+        <v>0.6177637604554389</v>
+      </c>
+      <c r="D108">
+        <v>0.96053278122843355</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.052994422652442461</v>
+      </c>
+      <c r="B109">
+        <v>0.76908003727352581</v>
+      </c>
+      <c r="C109">
+        <v>0.73030330123563625</v>
+      </c>
+      <c r="D109">
+        <v>0.97352477920135905</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.025240328040987019</v>
+      </c>
+      <c r="B110">
+        <v>0.90828795722211952</v>
+      </c>
+      <c r="C110">
+        <v>0.70070755195964518</v>
+      </c>
+      <c r="D110">
+        <v>0.9873798359795064</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0.032491166951276559</v>
+      </c>
+      <c r="B111">
+        <v>0.89969257800568847</v>
+      </c>
+      <c r="C111">
+        <v>0.6454135563661757</v>
+      </c>
+      <c r="D111">
+        <v>0.9837544165243618</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.073918263458675498</v>
+      </c>
+      <c r="B112">
+        <v>0.76059525460253219</v>
+      </c>
+      <c r="C112">
+        <v>0.63813848046610611</v>
+      </c>
+      <c r="D112">
+        <v>0.96305794340659634</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0.035101938589869805</v>
+      </c>
+      <c r="B113">
+        <v>0.73049339885459352</v>
+      </c>
+      <c r="C113">
+        <v>0.84375076598001875</v>
+      </c>
+      <c r="D113">
+        <v>0.98245366875726858</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.035697324931712932</v>
+      </c>
+      <c r="B114">
+        <v>0.77924544864996426</v>
+      </c>
+      <c r="C114">
+        <v>0.80579057609148519</v>
+      </c>
+      <c r="D114">
+        <v>0.98215558721568308</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.052663543540803548</v>
+      </c>
+      <c r="B115">
+        <v>0.76873545421866851</v>
+      </c>
+      <c r="C115">
+        <v>0.72801643320761622</v>
+      </c>
+      <c r="D115">
+        <v>0.97369484037937537</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.030113985730926933</v>
+      </c>
+      <c r="B116">
+        <v>0.87685045527268424</v>
+      </c>
+      <c r="C116">
+        <v>0.72713664060434313</v>
+      </c>
+      <c r="D116">
+        <v>0.98494300713453653</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.056656424691148323</v>
+      </c>
+      <c r="B117">
+        <v>0.85841427004067927</v>
+      </c>
+      <c r="C117">
+        <v>0.55200855596306175</v>
+      </c>
+      <c r="D117">
+        <v>0.97167583186983286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.054375700618847986</v>
+      </c>
+      <c r="B118">
+        <v>0.75773364891174344</v>
+      </c>
+      <c r="C118">
+        <v>0.73188728985768703</v>
+      </c>
+      <c r="D118">
+        <v>0.97282443451421186</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.10072761234551811</v>
+      </c>
+      <c r="B119">
+        <v>0.73479103361203846</v>
+      </c>
+      <c r="C119">
+        <v>0.55064612277351888</v>
+      </c>
+      <c r="D119">
+        <v>0.94990262302440576</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.14040732326800656</v>
+      </c>
+      <c r="B120">
+        <v>0.71937826077742018</v>
+      </c>
+      <c r="C120">
+        <v>0.42886197863601211</v>
+      </c>
+      <c r="D120">
+        <v>0.93006204173716855</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.091995631143704154</v>
+      </c>
+      <c r="B121">
+        <v>0.6370023499441485</v>
+      </c>
+      <c r="C121">
+        <v>0.68941287190220302</v>
+      </c>
+      <c r="D121">
+        <v>0.95449992198470901</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.22948663097327798</v>
+      </c>
+      <c r="B122">
+        <v>0.63372143217361465</v>
+      </c>
+      <c r="C122">
+        <v>0.39007308372583438</v>
+      </c>
+      <c r="D122">
+        <v>0.89252231503214152</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.21245116856723492</v>
+      </c>
+      <c r="B123">
+        <v>0.66419756767990423</v>
+      </c>
+      <c r="C123">
+        <v>0.3209198289345131</v>
+      </c>
+      <c r="D123">
+        <v>0.89655790147152903</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.2700363941640182</v>
+      </c>
+      <c r="B124">
+        <v>0.62561842078829699</v>
+      </c>
+      <c r="C124">
+        <v>0.35083375942158807</v>
+      </c>
+      <c r="D124">
+        <v>0.87674917240562833</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.11148694358002978</v>
+      </c>
+      <c r="B125">
+        <v>0.62606119243397007</v>
+      </c>
+      <c r="C125">
+        <v>0.65103323119895629</v>
+      </c>
+      <c r="D125">
+        <v>0.94525403179807999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.058708973060164649</v>
+      </c>
+      <c r="B126">
+        <v>0.62714991634918882</v>
+      </c>
+      <c r="C126">
+        <v>0.78904038107423013</v>
+      </c>
+      <c r="D126">
+        <v>0.97064551346991756</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.064376566615815534</v>
+      </c>
+      <c r="B127">
+        <v>0.68647957981004837</v>
+      </c>
+      <c r="C127">
+        <v>0.74263539928764832</v>
+      </c>
+      <c r="D127">
+        <v>0.9678562727583393</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.14593014016463782</v>
+      </c>
+      <c r="B128">
+        <v>0.66433460670784183</v>
+      </c>
+      <c r="C128">
+        <v>0.5158240161032589</v>
+      </c>
+      <c r="D128">
+        <v>0.92831156172859119</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.29283364782204702</v>
+      </c>
+      <c r="B129">
+        <v>0.53513684246425108</v>
+      </c>
+      <c r="C129">
+        <v>0.41043520342507828</v>
+      </c>
+      <c r="D129">
+        <v>0.87504555810820306</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.23306056460639221</v>
+      </c>
+      <c r="B130">
+        <v>0.59233536259666419</v>
+      </c>
+      <c r="C130">
+        <v>0.42269735225425109</v>
+      </c>
+      <c r="D130">
+        <v>0.8928794096919952</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.12141384388807071</v>
+      </c>
+      <c r="B131">
+        <v>0.66259039051983859</v>
+      </c>
+      <c r="C131">
+        <v>0.58262786449225279</v>
+      </c>
+      <c r="D131">
+        <v>0.94006193119595183</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.043816546842326928</v>
+      </c>
+      <c r="B132">
+        <v>0.71069739971329171</v>
+      </c>
+      <c r="C132">
+        <v>0.80692311273095307</v>
+      </c>
+      <c r="D132">
+        <v>0.97809172657883647</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.092577835760375163</v>
+      </c>
+      <c r="B133">
+        <v>0.63580622604777481</v>
+      </c>
+      <c r="C133">
+        <v>0.68546851877749815</v>
+      </c>
+      <c r="D133">
+        <v>0.9540401725374047</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.022389827339026367</v>
+      </c>
+      <c r="B134">
+        <v>0.48165691067390315</v>
+      </c>
+      <c r="C134">
+        <v>0.93566064560590845</v>
+      </c>
+      <c r="D134">
+        <v>0.9888050863304868</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.13965393215821198</v>
+      </c>
+      <c r="B135">
+        <v>0.54706971957161865</v>
+      </c>
+      <c r="C135">
+        <v>0.65143845194916039</v>
+      </c>
+      <c r="D135">
+        <v>0.93411132611011061</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.093673428067319264</v>
+      </c>
+      <c r="B136">
+        <v>0.73121320519393807</v>
+      </c>
+      <c r="C136">
+        <v>0.5792000663848671</v>
+      </c>
+      <c r="D136">
+        <v>0.95320736109791149</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.07864790896432515</v>
+      </c>
+      <c r="B137">
+        <v>0.77282166468836622</v>
+      </c>
+      <c r="C137">
+        <v>0.58528323862371068</v>
+      </c>
+      <c r="D137">
+        <v>0.96067604551783747</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.098596900516580571</v>
+      </c>
+      <c r="B138">
+        <v>0.751954393192792</v>
+      </c>
+      <c r="C138">
+        <v>0.5223285553057716</v>
+      </c>
+      <c r="D138">
+        <v>0.9507104371493641</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.099115621557416891</v>
+      </c>
+      <c r="B139">
+        <v>0.6338277494686636</v>
+      </c>
+      <c r="C139">
+        <v>0.67008641222616061</v>
+      </c>
+      <c r="D139">
+        <v>0.95086889002402253</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.12666567386448249</v>
+      </c>
+      <c r="B140">
+        <v>0.60137281341099857</v>
+      </c>
+      <c r="C140">
+        <v>0.62175438571030173</v>
+      </c>
+      <c r="D140">
+        <v>0.93826209977661956</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.17723594070852963</v>
+      </c>
+      <c r="B141">
+        <v>0.61151652614627827</v>
+      </c>
+      <c r="C141">
+        <v>0.41906386128739059</v>
+      </c>
+      <c r="D141">
+        <v>0.91171947948362508</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.33316522725840009</v>
+      </c>
+      <c r="B142">
+        <v>0.57012253193835494</v>
+      </c>
+      <c r="C142">
+        <v>0.27618906625112133</v>
+      </c>
+      <c r="D142">
+        <v>0.84304339459251421</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.21072315301197622</v>
+      </c>
+      <c r="B143">
+        <v>0.68239512656324541</v>
+      </c>
+      <c r="C143">
+        <v>0.35704215858386179</v>
+      </c>
+      <c r="D143">
+        <v>0.89561226879173028</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.1762280284394413</v>
+      </c>
+      <c r="B144">
+        <v>0.67998336721086072</v>
+      </c>
+      <c r="C144">
+        <v>0.36180850632859957</v>
+      </c>
+      <c r="D144">
+        <v>0.9119534737758519</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.12815560881672461</v>
+      </c>
+      <c r="B145">
+        <v>0.76780667262936864</v>
+      </c>
+      <c r="C145">
+        <v>0.39216574579851637</v>
+      </c>
+      <c r="D145">
+        <v>0.9359221955916377</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.16392932512596292</v>
+      </c>
+      <c r="B146">
+        <v>0.72369369778402581</v>
+      </c>
+      <c r="C146">
+        <v>0.35166230960165284</v>
+      </c>
+      <c r="D146">
+        <v>0.9180459756358651</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.2278031599074167</v>
+      </c>
+      <c r="B147">
+        <v>0.59319375990129752</v>
+      </c>
+      <c r="C147">
+        <v>0.41064766733044739</v>
+      </c>
+      <c r="D147">
+        <v>0.88790614202811047</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.14761333429430243</v>
+      </c>
+      <c r="B148">
+        <v>0.67268943728758346</v>
+      </c>
+      <c r="C148">
+        <v>0.45783737913666833</v>
+      </c>
+      <c r="D148">
+        <v>0.9263968321935957</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.16879585201658226</v>
+      </c>
+      <c r="B149">
+        <v>0.68316596748965397</v>
+      </c>
+      <c r="C149">
+        <v>0.40842079925545532</v>
+      </c>
+      <c r="D149">
+        <v>0.91568264865017313</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.26977572116563142</v>
+      </c>
+      <c r="B150">
+        <v>0.65324294929425064</v>
+      </c>
+      <c r="C150">
+        <v>0.28854428894934053</v>
+      </c>
+      <c r="D150">
+        <v>0.86875678047173843</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.1982178185444973</v>
+      </c>
+      <c r="B151">
+        <v>0.70651282770536206</v>
+      </c>
+      <c r="C151">
+        <v>0.31511606322030428</v>
+      </c>
+      <c r="D151">
+        <v>0.90112217480638535</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.25957829820292477</v>
+      </c>
+      <c r="B152">
+        <v>0.64177206129914599</v>
+      </c>
+      <c r="C152">
+        <v>0.2771399956752143</v>
+      </c>
+      <c r="D152">
+        <v>0.87169301304713376</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.18410687006514809</v>
+      </c>
+      <c r="B153">
+        <v>0.69717347693987985</v>
+      </c>
+      <c r="C153">
+        <v>0.33598519923517833</v>
+      </c>
+      <c r="D153">
+        <v>0.90800857669956858</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.22431450003151726</v>
+      </c>
+      <c r="B154">
+        <v>0.65177438802867893</v>
+      </c>
+      <c r="C154">
+        <v>0.37545916882309005</v>
+      </c>
+      <c r="D154">
+        <v>0.89008432612639121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.32676545733265205</v>
+      </c>
+      <c r="B155">
+        <v>0.51338196202734576</v>
+      </c>
+      <c r="C155">
+        <v>0.34260887701421128</v>
+      </c>
+      <c r="D155">
+        <v>0.85171759495826949</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.051058105132611283</v>
+      </c>
+      <c r="B156">
+        <v>0.6969034393088327</v>
+      </c>
+      <c r="C156">
+        <v>0.78482020054962343</v>
+      </c>
+      <c r="D156">
+        <v>0.97447094743369433</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.045725006700616466</v>
+      </c>
+      <c r="B157">
+        <v>0.62492512631600383</v>
+      </c>
+      <c r="C157">
+        <v>0.83973876102592104</v>
+      </c>
+      <c r="D157">
+        <v>0.97713749664969163</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.091075267170115742</v>
+      </c>
+      <c r="B158">
+        <v>0.62369971293617854</v>
+      </c>
+      <c r="C158">
+        <v>0.69233788356434445</v>
+      </c>
+      <c r="D158">
+        <v>0.95446236641494209</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.18358037561716473</v>
+      </c>
+      <c r="B159">
+        <v>0.65861997854973675</v>
+      </c>
+      <c r="C159">
+        <v>0.3667449367522459</v>
+      </c>
+      <c r="D159">
+        <v>0.90825214717757918</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.19251108332386041</v>
+      </c>
+      <c r="B160">
+        <v>0.65542174659531582</v>
+      </c>
+      <c r="C160">
+        <v>0.35326290185242371</v>
+      </c>
+      <c r="D160">
+        <v>0.90385358644992619</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.049674090047877033</v>
+      </c>
+      <c r="B161">
+        <v>0.88312901594954285</v>
+      </c>
+      <c r="C161">
+        <v>0.52947159607092209</v>
+      </c>
+      <c r="D161">
+        <v>0.97516295497606154</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.081835485047891579</v>
+      </c>
+      <c r="B162">
+        <v>0.69022798185364187</v>
+      </c>
+      <c r="C162">
+        <v>0.67299146166557322</v>
+      </c>
+      <c r="D162">
+        <v>0.95911156240704831</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.077139208173690937</v>
+      </c>
+      <c r="B163">
+        <v>0.65011065383192301</v>
+      </c>
+      <c r="C163">
+        <v>0.71672417600535165</v>
+      </c>
+      <c r="D163">
+        <v>0.96149049658177455</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.098537867209076951</v>
+      </c>
+      <c r="B164">
+        <v>0.80465099810675556</v>
+      </c>
+      <c r="C164">
+        <v>0.41118260521472316</v>
+      </c>
+      <c r="D164">
+        <v>0.95073106639546157</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.17506834747337863</v>
+      </c>
+      <c r="B165">
+        <v>0.66649588462041798</v>
+      </c>
+      <c r="C165">
+        <v>0.45297695162052198</v>
+      </c>
+      <c r="D165">
+        <v>0.91291755483090775</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.20446536898023501</v>
+      </c>
+      <c r="B166">
+        <v>0.63586856079191878</v>
+      </c>
+      <c r="C166">
+        <v>0.41453209954087428</v>
+      </c>
+      <c r="D166">
+        <v>0.89853305362341962</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.19106368932538273</v>
+      </c>
+      <c r="B167">
+        <v>0.56449782653124436</v>
+      </c>
+      <c r="C167">
+        <v>0.49876286747274962</v>
+      </c>
+      <c r="D167">
+        <v>0.90648974949236871</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.29551332405404035</v>
+      </c>
+      <c r="B168">
+        <v>0.59162567824692069</v>
+      </c>
+      <c r="C168">
+        <v>0.27111895842922301</v>
+      </c>
+      <c r="D168">
+        <v>0.85718042712309761</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.29269549585538795</v>
+      </c>
+      <c r="B169">
+        <v>0.63496344260040916</v>
+      </c>
+      <c r="C169">
+        <v>0.3085604696477221</v>
+      </c>
+      <c r="D169">
+        <v>0.86060701088584834</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.19560388791158026</v>
+      </c>
+      <c r="B170">
+        <v>0.65176131316074448</v>
+      </c>
+      <c r="C170">
+        <v>0.4277651325058312</v>
+      </c>
+      <c r="D170">
+        <v>0.90318276856738378</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.22924629573912494</v>
+      </c>
+      <c r="B171">
+        <v>0.64020988795212819</v>
+      </c>
+      <c r="C171">
+        <v>0.38869575598702455</v>
+      </c>
+      <c r="D171">
+        <v>0.88825680894346692</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.25989221189020129</v>
+      </c>
+      <c r="B172">
+        <v>0.59286993360443141</v>
+      </c>
+      <c r="C172">
+        <v>0.36370277644231125</v>
+      </c>
+      <c r="D172">
+        <v>0.87442140018164149</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.21426190332750969</v>
+      </c>
+      <c r="B173">
+        <v>0.60817713142721441</v>
+      </c>
+      <c r="C173">
+        <v>0.42149433000772468</v>
+      </c>
+      <c r="D173">
+        <v>0.89492138080607264</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.30186012977649612</v>
+      </c>
+      <c r="B174">
+        <v>0.58754645203242817</v>
+      </c>
+      <c r="C174">
+        <v>0.31913742992669758</v>
+      </c>
+      <c r="D174">
+        <v>0.85560215607511936</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.32927229315893286</v>
+      </c>
+      <c r="B175">
+        <v>0.58627928453250644</v>
+      </c>
+      <c r="C175">
+        <v>0.29556357943718087</v>
+      </c>
+      <c r="D175">
+        <v>0.84517035191529122</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.27500814597588785</v>
+      </c>
+      <c r="B176">
+        <v>0.6386957848427206</v>
+      </c>
+      <c r="C176">
+        <v>0.32019654461791808</v>
+      </c>
+      <c r="D176">
+        <v>0.86693596304601994</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.3657447439035777</v>
+      </c>
+      <c r="B177">
+        <v>0.60074220610455265</v>
+      </c>
+      <c r="C177">
+        <v>0.26117989236198524</v>
+      </c>
+      <c r="D177">
+        <v>0.83489199579431095</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.26840236686390534</v>
+      </c>
+      <c r="B178">
+        <v>0.62172295211127016</v>
+      </c>
+      <c r="C178">
+        <v>0.35202793899551726</v>
+      </c>
+      <c r="D178">
+        <v>0.87246582926744853</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.13718115932852987</v>
+      </c>
+      <c r="B179">
+        <v>0.64795134697901535</v>
+      </c>
+      <c r="C179">
+        <v>0.55003574369809116</v>
+      </c>
+      <c r="D179">
+        <v>0.93159514252067221</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.21324519016986335</v>
+      </c>
+      <c r="B180">
+        <v>0.63107640257095876</v>
+      </c>
+      <c r="C180">
+        <v>0.34488214600304928</v>
+      </c>
+      <c r="D180">
+        <v>0.8942884811114733</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.049674090047877033</v>
+      </c>
+      <c r="B181">
+        <v>0.88312901594954285</v>
+      </c>
+      <c r="C181">
+        <v>0.52947159607092209</v>
+      </c>
+      <c r="D181">
+        <v>0.97516295497606154</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.081835485047891579</v>
+      </c>
+      <c r="B182">
+        <v>0.69022798185364187</v>
+      </c>
+      <c r="C182">
+        <v>0.67299146166557322</v>
+      </c>
+      <c r="D182">
+        <v>0.95911156240704831</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.077139208173690937</v>
+      </c>
+      <c r="B183">
+        <v>0.65011065383192301</v>
+      </c>
+      <c r="C183">
+        <v>0.71672417600535165</v>
+      </c>
+      <c r="D183">
+        <v>0.96149049658177455</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.098537867209076951</v>
+      </c>
+      <c r="B184">
+        <v>0.80465099810675556</v>
+      </c>
+      <c r="C184">
+        <v>0.41118260521472316</v>
+      </c>
+      <c r="D184">
+        <v>0.95073106639546157</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.17506834747337863</v>
+      </c>
+      <c r="B185">
+        <v>0.66649588462041798</v>
+      </c>
+      <c r="C185">
+        <v>0.45297695162052198</v>
+      </c>
+      <c r="D185">
+        <v>0.91291755483090775</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.20446536898023501</v>
+      </c>
+      <c r="B186">
+        <v>0.63586856079191878</v>
+      </c>
+      <c r="C186">
+        <v>0.41453209954087428</v>
+      </c>
+      <c r="D186">
+        <v>0.89853305362341962</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.19106368932538273</v>
+      </c>
+      <c r="B187">
+        <v>0.56449782653124436</v>
+      </c>
+      <c r="C187">
+        <v>0.49876286747274962</v>
+      </c>
+      <c r="D187">
+        <v>0.90648974949236871</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.29551332405404035</v>
+      </c>
+      <c r="B188">
+        <v>0.59162567824692069</v>
+      </c>
+      <c r="C188">
+        <v>0.27111895842922301</v>
+      </c>
+      <c r="D188">
+        <v>0.85718042712309761</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.29269549585538795</v>
+      </c>
+      <c r="B189">
+        <v>0.63496344260040916</v>
+      </c>
+      <c r="C189">
+        <v>0.3085604696477221</v>
+      </c>
+      <c r="D189">
+        <v>0.86060701088584834</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.19560388791158026</v>
+      </c>
+      <c r="B190">
+        <v>0.65176131316074448</v>
+      </c>
+      <c r="C190">
+        <v>0.4277651325058312</v>
+      </c>
+      <c r="D190">
+        <v>0.90318276856738378</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.22924629573912494</v>
+      </c>
+      <c r="B191">
+        <v>0.64020988795212819</v>
+      </c>
+      <c r="C191">
+        <v>0.38869575598702455</v>
+      </c>
+      <c r="D191">
+        <v>0.88825680894346692</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.25989221189020129</v>
+      </c>
+      <c r="B192">
+        <v>0.59286993360443141</v>
+      </c>
+      <c r="C192">
+        <v>0.36370277644231125</v>
+      </c>
+      <c r="D192">
+        <v>0.87442140018164149</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.21426190332750969</v>
+      </c>
+      <c r="B193">
+        <v>0.60817713142721441</v>
+      </c>
+      <c r="C193">
+        <v>0.42149433000772468</v>
+      </c>
+      <c r="D193">
+        <v>0.89492138080607264</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.30186012977649612</v>
+      </c>
+      <c r="B194">
+        <v>0.58754645203242817</v>
+      </c>
+      <c r="C194">
+        <v>0.31913742992669758</v>
+      </c>
+      <c r="D194">
+        <v>0.85560215607511936</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.32927229315893286</v>
+      </c>
+      <c r="B195">
+        <v>0.58627928453250644</v>
+      </c>
+      <c r="C195">
+        <v>0.29556357943718087</v>
+      </c>
+      <c r="D195">
+        <v>0.84517035191529122</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.27500814597588785</v>
+      </c>
+      <c r="B196">
+        <v>0.6386957848427206</v>
+      </c>
+      <c r="C196">
+        <v>0.32019654461791808</v>
+      </c>
+      <c r="D196">
+        <v>0.86693596304601994</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.3657447439035777</v>
+      </c>
+      <c r="B197">
+        <v>0.60074220610455265</v>
+      </c>
+      <c r="C197">
+        <v>0.26117989236198524</v>
+      </c>
+      <c r="D197">
+        <v>0.83489199579431095</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.26840236686390534</v>
+      </c>
+      <c r="B198">
+        <v>0.62172295211127016</v>
+      </c>
+      <c r="C198">
+        <v>0.35202793899551726</v>
+      </c>
+      <c r="D198">
+        <v>0.87246582926744853</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.13718115932852987</v>
+      </c>
+      <c r="B199">
+        <v>0.64795134697901535</v>
+      </c>
+      <c r="C199">
+        <v>0.55003574369809116</v>
+      </c>
+      <c r="D199">
+        <v>0.93159514252067221</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.21324519016986335</v>
+      </c>
+      <c r="B200">
+        <v>0.63107640257095876</v>
+      </c>
+      <c r="C200">
+        <v>0.34488214600304928</v>
+      </c>
+      <c r="D200">
+        <v>0.8942884811114733</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.090637196860062275</v>
+      </c>
+      <c r="B201">
+        <v>0.8003498511411391</v>
+      </c>
+      <c r="C201">
+        <v>0.52203229349108227</v>
+      </c>
+      <c r="D201">
+        <v>0.95471648467306935</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.081287703301110736</v>
+      </c>
+      <c r="B202">
+        <v>0.77635538750402189</v>
+      </c>
+      <c r="C202">
+        <v>0.59725781297114688</v>
+      </c>
+      <c r="D202">
+        <v>0.95948711232616579</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.078407162346355988</v>
+      </c>
+      <c r="B203">
+        <v>0.72116463106597961</v>
+      </c>
+      <c r="C203">
+        <v>0.70017239172712109</v>
+      </c>
+      <c r="D203">
+        <v>0.96146724319229282</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.054490639594666115</v>
+      </c>
+      <c r="B204">
+        <v>0.72554898492402764</v>
+      </c>
+      <c r="C204">
+        <v>0.77718118672939551</v>
+      </c>
+      <c r="D204">
+        <v>0.9729847362477394</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.068935333023139214</v>
+      </c>
+      <c r="B205">
+        <v>0.72829324327175626</v>
+      </c>
+      <c r="C205">
+        <v>0.72668709294072209</v>
+      </c>
+      <c r="D205">
+        <v>0.9658722722569596</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.10005156130135695</v>
+      </c>
+      <c r="B206">
+        <v>0.73629192246915109</v>
+      </c>
+      <c r="C206">
+        <v>0.59781251447419947</v>
+      </c>
+      <c r="D206">
+        <v>0.95033975963211215</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.14156997519397241</v>
+      </c>
+      <c r="B207">
+        <v>0.73783718158556122</v>
+      </c>
+      <c r="C207">
+        <v>0.44721731916351637</v>
+      </c>
+      <c r="D207">
+        <v>0.93008659750899025</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.079221154298226168</v>
+      </c>
+      <c r="B208">
+        <v>0.69963031689631194</v>
+      </c>
+      <c r="C208">
+        <v>0.70706179116833634</v>
+      </c>
+      <c r="D208">
+        <v>0.96100435602541223</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.13510662444201857</v>
+      </c>
+      <c r="B209">
+        <v>0.764323384796598</v>
+      </c>
+      <c r="C209">
+        <v>0.43644447891160421</v>
+      </c>
+      <c r="D209">
+        <v>0.93257062360617249</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.058820571802075283</v>
+      </c>
+      <c r="B210">
+        <v>0.81347170180856554</v>
+      </c>
+      <c r="C210">
+        <v>0.6479112095333206</v>
+      </c>
+      <c r="D210">
+        <v>0.97059250739700231</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.072316721852325572</v>
+      </c>
+      <c r="B211">
+        <v>0.81423202190122479</v>
+      </c>
+      <c r="C211">
+        <v>0.56399706121959503</v>
+      </c>
+      <c r="D211">
+        <v>0.96385120193169738</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.10538279934585401</v>
+      </c>
+      <c r="B212">
+        <v>0.75126177318546783</v>
+      </c>
+      <c r="C212">
+        <v>0.55906830816697139</v>
+      </c>
+      <c r="D212">
+        <v>0.94756252021534826</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.1641192384170955</v>
+      </c>
+      <c r="B213">
+        <v>0.68578831724270528</v>
+      </c>
+      <c r="C213">
+        <v>0.49528518811665756</v>
+      </c>
+      <c r="D213">
+        <v>0.91944849814098895</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.075532242230655383</v>
+      </c>
+      <c r="B214">
+        <v>0.80464962470524737</v>
+      </c>
+      <c r="C214">
+        <v>0.5675453885082018</v>
+      </c>
+      <c r="D214">
+        <v>0.96224169340698507</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.069413191359665893</v>
+      </c>
+      <c r="B215">
+        <v>0.74885544347844279</v>
+      </c>
+      <c r="C215">
+        <v>0.70195571974981241</v>
+      </c>
+      <c r="D215">
+        <v>0.96557873507687719</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.080687184323901012</v>
+      </c>
+      <c r="B216">
+        <v>0.74163200674445662</v>
+      </c>
+      <c r="C216">
+        <v>0.68149606211610037</v>
+      </c>
+      <c r="D216">
+        <v>0.96014648153403737</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.085638071502282254</v>
+      </c>
+      <c r="B217">
+        <v>0.79030608374830724</v>
+      </c>
+      <c r="C217">
+        <v>0.55949017603858475</v>
+      </c>
+      <c r="D217">
+        <v>0.9571809642488589</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.11400176508959747</v>
+      </c>
+      <c r="B218">
+        <v>0.77217985877917361</v>
+      </c>
+      <c r="C218">
+        <v>0.47833625993078593</v>
+      </c>
+      <c r="D218">
+        <v>0.94321557214385576</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.15412339694082047</v>
+      </c>
+      <c r="B219">
+        <v>0.74450876143903644</v>
+      </c>
+      <c r="C219">
+        <v>0.4432607723896963</v>
+      </c>
+      <c r="D219">
+        <v>0.92453839024738016</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.10942933538179721</v>
+      </c>
+      <c r="B220">
+        <v>0.73736093046125861</v>
+      </c>
+      <c r="C220">
+        <v>0.59798446871531352</v>
+      </c>
+      <c r="D220">
+        <v>0.94676505202408912</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.14223121993749213</v>
+      </c>
+      <c r="B221">
+        <v>0.62173239478147502</v>
+      </c>
+      <c r="C221">
+        <v>0.65962360192966518</v>
+      </c>
+      <c r="D221">
+        <v>0.936487295242458</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.14118114665472023</v>
+      </c>
+      <c r="B222">
+        <v>0.72068183680825848</v>
+      </c>
+      <c r="C222">
+        <v>0.46531663198879863</v>
+      </c>
+      <c r="D222">
+        <v>0.9304603528012908</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.29638907957965882</v>
+      </c>
+      <c r="B223">
+        <v>0.69020781282214905</v>
+      </c>
+      <c r="C223">
+        <v>0.24628222165681068</v>
+      </c>
+      <c r="D223">
+        <v>0.86019591276337326</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.18914469426741698</v>
+      </c>
+      <c r="B224">
+        <v>0.61313355499453981</v>
+      </c>
+      <c r="C224">
+        <v>0.53840645118021346</v>
+      </c>
+      <c r="D224">
+        <v>0.91310051995161146</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.3453138730930716</v>
+      </c>
+      <c r="B225">
+        <v>0.61386773764833302</v>
+      </c>
+      <c r="C225">
+        <v>0.3289498007862855</v>
+      </c>
+      <c r="D225">
+        <v>0.8530206303964738</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.48617539859909109</v>
+      </c>
+      <c r="B226">
+        <v>0.56168295846946681</v>
+      </c>
+      <c r="C226">
+        <v>0.21179109616968053</v>
+      </c>
+      <c r="D226">
+        <v>0.80325323853949493</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.49684443358083658</v>
+      </c>
+      <c r="B227">
+        <v>0.53400711438840653</v>
+      </c>
+      <c r="C227">
+        <v>0.2150472809253407</v>
+      </c>
+      <c r="D227">
+        <v>0.80021758381785468</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.30995951859141574</v>
+      </c>
+      <c r="B228">
+        <v>0.64101542021222624</v>
+      </c>
+      <c r="C228">
+        <v>0.254172561478892</v>
+      </c>
+      <c r="D228">
+        <v>0.85564092254259316</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.30505720347493304</v>
+      </c>
+      <c r="B229">
+        <v>0.66495911969459842</v>
+      </c>
+      <c r="C229">
+        <v>0.25622542220307803</v>
+      </c>
+      <c r="D229">
+        <v>0.85684889737700254</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.16953961651195604</v>
+      </c>
+      <c r="B230">
+        <v>0.71037759202411088</v>
+      </c>
+      <c r="C230">
+        <v>0.45332706754190599</v>
+      </c>
+      <c r="D230">
+        <v>0.91711136216522027</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.12807735697018535</v>
+      </c>
+      <c r="B231">
+        <v>0.70448949872289346</v>
+      </c>
+      <c r="C231">
+        <v>0.52812342993388006</v>
+      </c>
+      <c r="D231">
+        <v>0.93661455815202788</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.15937029816014436</v>
+      </c>
+      <c r="B232">
+        <v>0.73530855906224568</v>
+      </c>
+      <c r="C232">
+        <v>0.45962103324795534</v>
+      </c>
+      <c r="D232">
+        <v>0.92182427757969254</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.21311621590106253</v>
+      </c>
+      <c r="B233">
+        <v>0.55920102128688765</v>
+      </c>
+      <c r="C233">
+        <v>0.60139180993756358</v>
+      </c>
+      <c r="D233">
+        <v>0.91429817521669443</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.18133040078792015</v>
+      </c>
+      <c r="B234">
+        <v>0.58325947669233968</v>
+      </c>
+      <c r="C234">
+        <v>0.63075134119123344</v>
+      </c>
+      <c r="D234">
+        <v>0.92410880629691616</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.46226884684347153</v>
+      </c>
+      <c r="B235">
+        <v>0.55915612205492249</v>
+      </c>
+      <c r="C235">
+        <v>0.31498812143390092</v>
+      </c>
+      <c r="D235">
+        <v>0.82680636211987402</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>0.23384031521467907</v>
+      </c>
+      <c r="B236">
+        <v>0.62537289847405675</v>
+      </c>
+      <c r="C236">
+        <v>0.47195031351265931</v>
+      </c>
+      <c r="D236">
+        <v>0.8961267435360295</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>0.1147388206220975</v>
+      </c>
+      <c r="B237">
+        <v>0.67367306933986482</v>
+      </c>
+      <c r="C237">
+        <v>0.59857430360421582</v>
+      </c>
+      <c r="D237">
+        <v>0.94364979223276912</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.24048499649321095</v>
+      </c>
+      <c r="B238">
+        <v>0.61048590298672833</v>
+      </c>
+      <c r="C238">
+        <v>0.44920063802815097</v>
+      </c>
+      <c r="D238">
+        <v>0.89246183318448402</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.098897770891291314</v>
+      </c>
+      <c r="B239">
+        <v>0.6433574303749362</v>
+      </c>
+      <c r="C239">
+        <v>0.72885401324659194</v>
+      </c>
+      <c r="D239">
+        <v>0.95376682982944216</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.10410744152926435</v>
+      </c>
+      <c r="B240">
+        <v>0.67184091141522284</v>
+      </c>
+      <c r="C240">
+        <v>0.65330681697685689</v>
+      </c>
+      <c r="D240">
+        <v>0.94927844232598624</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.15598843236754517</v>
+      </c>
+      <c r="B241">
+        <v>0.62305025698464411</v>
+      </c>
+      <c r="C241">
+        <v>0.55838786323839651</v>
+      </c>
+      <c r="D241">
+        <v>0.924031635170938</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.23768509610850166</v>
+      </c>
+      <c r="B242">
+        <v>0.63238925932731804</v>
+      </c>
+      <c r="C242">
+        <v>0.41706954590280987</v>
+      </c>
+      <c r="D242">
+        <v>0.88604021655065734</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.16046209672199185</v>
+      </c>
+      <c r="B243">
+        <v>0.66691225497737727</v>
+      </c>
+      <c r="C243">
+        <v>0.49298873850860997</v>
+      </c>
+      <c r="D243">
+        <v>0.91987048904221025</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.06985134118316963</v>
+      </c>
+      <c r="B244">
+        <v>0.7226106786115073</v>
+      </c>
+      <c r="C244">
+        <v>0.7087074611404498</v>
+      </c>
+      <c r="D244">
+        <v>0.96507432940841509</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>0.16224675084779433</v>
+      </c>
+      <c r="B245">
+        <v>0.67017269338900887</v>
+      </c>
+      <c r="C245">
+        <v>0.51360905026841885</v>
+      </c>
+      <c r="D245">
+        <v>0.91981997367451906</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>0.24570150207734104</v>
+      </c>
+      <c r="B246">
+        <v>0.6531532185121075</v>
+      </c>
+      <c r="C246">
+        <v>0.38297809867783944</v>
+      </c>
+      <c r="D246">
+        <v>0.88021638185475526</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.17836210934762486</v>
+      </c>
+      <c r="B247">
+        <v>0.72832793822465103</v>
+      </c>
+      <c r="C247">
+        <v>0.39954509430722351</v>
+      </c>
+      <c r="D247">
+        <v>0.91145827570138827</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.14434903616553599</v>
+      </c>
+      <c r="B248">
+        <v>0.73122391449492774</v>
+      </c>
+      <c r="C248">
+        <v>0.47763898823607059</v>
+      </c>
+      <c r="D248">
+        <v>0.92808877713996563</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.14822484711401523</v>
+      </c>
+      <c r="B249">
+        <v>0.75272451839381904</v>
+      </c>
+      <c r="C249">
+        <v>0.4086358176719419</v>
+      </c>
+      <c r="D249">
+        <v>0.92590098014576527</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.1453546567548622</v>
+      </c>
+      <c r="B250">
+        <v>0.75735599533393272</v>
+      </c>
+      <c r="C250">
+        <v>0.40740504861623478</v>
+      </c>
+      <c r="D250">
+        <v>0.92747047923357429</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.23612573220031352</v>
+      </c>
+      <c r="B251">
+        <v>0.67293336551784677</v>
+      </c>
+      <c r="C251">
+        <v>0.38781239278138974</v>
+      </c>
+      <c r="D251">
+        <v>0.88655996479938393</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>0.3589863684708684</v>
+      </c>
+      <c r="B252">
+        <v>0.61676576088787716</v>
+      </c>
+      <c r="C252">
+        <v>0.29538667140086194</v>
+      </c>
+      <c r="D252">
+        <v>0.838997145326</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>0.10846524700876389</v>
+      </c>
+      <c r="B253">
+        <v>0.66790025048626045</v>
+      </c>
+      <c r="C253">
+        <v>0.63943944665234176</v>
+      </c>
+      <c r="D253">
+        <v>0.94580901632411396</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0.16426683854334515</v>
+      </c>
+      <c r="B254">
+        <v>0.66707018381255645</v>
+      </c>
+      <c r="C254">
+        <v>0.51862573980889204</v>
+      </c>
+      <c r="D254">
+        <v>0.91903426791277254</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>0.27456088680505863</v>
+      </c>
+      <c r="B255">
+        <v>0.56970780507274743</v>
+      </c>
+      <c r="C255">
+        <v>0.39938336740154801</v>
+      </c>
+      <c r="D255">
+        <v>0.86957886774749993</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>0.3001861922757858</v>
+      </c>
+      <c r="B256">
+        <v>0.59657847023674426</v>
+      </c>
+      <c r="C256">
+        <v>0.33521748970935206</v>
+      </c>
+      <c r="D256">
+        <v>0.85550772728669311</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>0.14912975057790617</v>
+      </c>
+      <c r="B257">
+        <v>0.75027699673533998</v>
+      </c>
+      <c r="C257">
+        <v>0.41518509582585172</v>
+      </c>
+      <c r="D257">
+        <v>0.92547296849820071</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>0.084618619081859373</v>
+      </c>
+      <c r="B258">
+        <v>0.85239261519988851</v>
+      </c>
+      <c r="C258">
+        <v>0.41401131227980842</v>
+      </c>
+      <c r="D258">
+        <v>0.95769069045907029</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>0.25324233688297931</v>
+      </c>
+      <c r="B259">
+        <v>0.72361451715716907</v>
+      </c>
+      <c r="C259">
+        <v>0.25844314041499672</v>
+      </c>
+      <c r="D259">
+        <v>0.87477515640014913</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>0.1243575405558161</v>
+      </c>
+      <c r="B260">
+        <v>0.79738167663136472</v>
+      </c>
+      <c r="C260">
+        <v>0.39964904903102683</v>
+      </c>
+      <c r="D260">
+        <v>0.93782443650765024</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>0.11246911546697415</v>
+      </c>
+      <c r="B261">
+        <v>0.75264594287378062</v>
+      </c>
+      <c r="C261">
+        <v>0.48303499122239263</v>
+      </c>
+      <c r="D261">
+        <v>0.94376544226651293</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>0.15655530152174446</v>
+      </c>
+      <c r="B262">
+        <v>0.67786414003601736</v>
+      </c>
+      <c r="C262">
+        <v>0.42983835301149992</v>
+      </c>
+      <c r="D262">
+        <v>0.92175512779539637</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>0.19619217000706843</v>
+      </c>
+      <c r="B263">
+        <v>0.66723273318237308</v>
+      </c>
+      <c r="C263">
+        <v>0.34366680572350949</v>
+      </c>
+      <c r="D263">
+        <v>0.90204376344331183</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0.1666067585896201</v>
+      </c>
+      <c r="B264">
+        <v>0.69352556033497614</v>
+      </c>
+      <c r="C264">
+        <v>0.371219529973493</v>
+      </c>
+      <c r="D264">
+        <v>0.91670301090007489</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>0.17385866166353969</v>
+      </c>
+      <c r="B265">
+        <v>0.70363275494628508</v>
+      </c>
+      <c r="C265">
+        <v>0.3482083861644073</v>
+      </c>
+      <c r="D265">
+        <v>0.9130881626191194</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>0.33049060745215025</v>
+      </c>
+      <c r="B266">
+        <v>0.63444517168807146</v>
+      </c>
+      <c r="C266">
+        <v>0.27816911789524174</v>
+      </c>
+      <c r="D266">
+        <v>0.84421222660939965</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>0.16574450656051049</v>
+      </c>
+      <c r="B267">
+        <v>0.70813723728817934</v>
+      </c>
+      <c r="C267">
+        <v>0.35997058295634066</v>
+      </c>
+      <c r="D267">
+        <v>0.91712774671974473</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>0.093935296872652729</v>
+      </c>
+      <c r="B268">
+        <v>0.8200919117098483</v>
+      </c>
+      <c r="C268">
+        <v>0.41160414984863491</v>
+      </c>
+      <c r="D268">
+        <v>0.95303235156367361</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.080106009598166328</v>
+      </c>
+      <c r="B269">
+        <v>0.84048466710150449</v>
+      </c>
+      <c r="C269">
+        <v>0.43542743704962472</v>
+      </c>
+      <c r="D269">
+        <v>0.95994699520091675</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.080787646489756434</v>
+      </c>
+      <c r="B270">
+        <v>0.84395300116190375</v>
+      </c>
+      <c r="C270">
+        <v>0.42283091260347938</v>
+      </c>
+      <c r="D270">
+        <v>0.95960617675512183</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.06844744386894297</v>
+      </c>
+      <c r="B271">
+        <v>0.82867617221111778</v>
+      </c>
+      <c r="C271">
+        <v>0.54610148196450448</v>
+      </c>
+      <c r="D271">
+        <v>0.96577627806552846</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.083938011879846605</v>
+      </c>
+      <c r="B272">
+        <v>0.83328195616560441</v>
+      </c>
+      <c r="C272">
+        <v>0.43752694433905737</v>
+      </c>
+      <c r="D272">
+        <v>0.95803099406007675</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.054453119117658516</v>
+      </c>
+      <c r="B273">
+        <v>0.71498222083500729</v>
+      </c>
+      <c r="C273">
+        <v>0.77261353653174314</v>
+      </c>
+      <c r="D273">
+        <v>0.97278382581648526</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.061832167488088688</v>
+      </c>
+      <c r="B274">
+        <v>0.67857937162567339</v>
+      </c>
+      <c r="C274">
+        <v>0.76892121509533473</v>
+      </c>
+      <c r="D274">
+        <v>0.96909849501634193</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.059789836238100552</v>
+      </c>
+      <c r="B275">
+        <v>0.88043804797144198</v>
+      </c>
+      <c r="C275">
+        <v>0.44441634357433391</v>
+      </c>
+      <c r="D275">
+        <v>0.97010508188094979</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.099346809985107837</v>
+      </c>
+      <c r="B276">
+        <v>0.80576944586770594</v>
+      </c>
+      <c r="C276">
+        <v>0.41005093547821325</v>
+      </c>
+      <c r="D276">
+        <v>0.95033052692627162</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.041061732991915227</v>
+      </c>
+      <c r="B277">
+        <v>0.69565986499460231</v>
+      </c>
+      <c r="C277">
+        <v>0.82788061230539522</v>
+      </c>
+      <c r="D277">
+        <v>0.9794691335040423</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.26859556570765575</v>
+      </c>
+      <c r="B278">
+        <v>0.56505729252097581</v>
+      </c>
+      <c r="C278">
+        <v>0.37100114841021076</v>
+      </c>
+      <c r="D278">
+        <v>0.8690862505514162</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.21233880186112405</v>
+      </c>
+      <c r="B279">
+        <v>0.57875569508940949</v>
+      </c>
+      <c r="C279">
+        <v>0.45162771296868265</v>
+      </c>
+      <c r="D279">
+        <v>0.8947107154165258</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.18574449862793421</v>
+      </c>
+      <c r="B280">
+        <v>0.62168725873173081</v>
+      </c>
+      <c r="C280">
+        <v>0.3767767216564033</v>
+      </c>
+      <c r="D280">
+        <v>0.90717436013959529</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.11246911546697415</v>
+      </c>
+      <c r="B281">
+        <v>0.75264594287378062</v>
+      </c>
+      <c r="C281">
+        <v>0.48303499122239263</v>
+      </c>
+      <c r="D281">
+        <v>0.94376544226651293</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.15655530152174446</v>
+      </c>
+      <c r="B282">
+        <v>0.67786414003601736</v>
+      </c>
+      <c r="C282">
+        <v>0.42983835301149992</v>
+      </c>
+      <c r="D282">
+        <v>0.92175512779539637</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.19619217000706843</v>
+      </c>
+      <c r="B283">
+        <v>0.66723273318237308</v>
+      </c>
+      <c r="C283">
+        <v>0.34366680572350949</v>
+      </c>
+      <c r="D283">
+        <v>0.90204376344331183</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>0.1666067585896201</v>
+      </c>
+      <c r="B284">
+        <v>0.69352556033497614</v>
+      </c>
+      <c r="C284">
+        <v>0.371219529973493</v>
+      </c>
+      <c r="D284">
+        <v>0.91670301090007489</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>0.17385866166353969</v>
+      </c>
+      <c r="B285">
+        <v>0.70363275494628508</v>
+      </c>
+      <c r="C285">
+        <v>0.3482083861644073</v>
+      </c>
+      <c r="D285">
+        <v>0.9130881626191194</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>0.33049060745215025</v>
+      </c>
+      <c r="B286">
+        <v>0.63444517168807146</v>
+      </c>
+      <c r="C286">
+        <v>0.27816911789524174</v>
+      </c>
+      <c r="D286">
+        <v>0.84421222660939965</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.16574450656051049</v>
+      </c>
+      <c r="B287">
+        <v>0.70813723728817934</v>
+      </c>
+      <c r="C287">
+        <v>0.35997058295634066</v>
+      </c>
+      <c r="D287">
+        <v>0.91712774671974473</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.093935296872652729</v>
+      </c>
+      <c r="B288">
+        <v>0.8200919117098483</v>
+      </c>
+      <c r="C288">
+        <v>0.41160414984863491</v>
+      </c>
+      <c r="D288">
+        <v>0.95303235156367361</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.080106009598166328</v>
+      </c>
+      <c r="B289">
+        <v>0.84048466710150449</v>
+      </c>
+      <c r="C289">
+        <v>0.43542743704962472</v>
+      </c>
+      <c r="D289">
+        <v>0.95994699520091675</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>0.080787646489756434</v>
+      </c>
+      <c r="B290">
+        <v>0.84395300116190375</v>
+      </c>
+      <c r="C290">
+        <v>0.42283091260347938</v>
+      </c>
+      <c r="D290">
+        <v>0.95960617675512183</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>0.06844744386894297</v>
+      </c>
+      <c r="B291">
+        <v>0.82867617221111778</v>
+      </c>
+      <c r="C291">
+        <v>0.54610148196450448</v>
+      </c>
+      <c r="D291">
+        <v>0.96577627806552846</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>0.083938011879846605</v>
+      </c>
+      <c r="B292">
+        <v>0.83328195616560441</v>
+      </c>
+      <c r="C292">
+        <v>0.43752694433905737</v>
+      </c>
+      <c r="D292">
+        <v>0.95803099406007675</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>0.054453119117658516</v>
+      </c>
+      <c r="B293">
+        <v>0.71498222083500729</v>
+      </c>
+      <c r="C293">
+        <v>0.77261353653174314</v>
+      </c>
+      <c r="D293">
+        <v>0.97278382581648526</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>0.061832167488088688</v>
+      </c>
+      <c r="B294">
+        <v>0.67857937162567339</v>
+      </c>
+      <c r="C294">
+        <v>0.76892121509533473</v>
+      </c>
+      <c r="D294">
+        <v>0.96909849501634193</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>0.059789836238100552</v>
+      </c>
+      <c r="B295">
+        <v>0.88043804797144198</v>
+      </c>
+      <c r="C295">
+        <v>0.44441634357433391</v>
+      </c>
+      <c r="D295">
+        <v>0.97010508188094979</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>0.099346809985107837</v>
+      </c>
+      <c r="B296">
+        <v>0.80576944586770594</v>
+      </c>
+      <c r="C296">
+        <v>0.41005093547821325</v>
+      </c>
+      <c r="D296">
+        <v>0.95033052692627162</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>0.041061732991915227</v>
+      </c>
+      <c r="B297">
+        <v>0.69565986499460231</v>
+      </c>
+      <c r="C297">
+        <v>0.82788061230539522</v>
+      </c>
+      <c r="D297">
+        <v>0.9794691335040423</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>0.26859556570765575</v>
+      </c>
+      <c r="B298">
+        <v>0.56505729252097581</v>
+      </c>
+      <c r="C298">
+        <v>0.37100114841021076</v>
+      </c>
+      <c r="D298">
+        <v>0.8690862505514162</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>0.21233880186112405</v>
+      </c>
+      <c r="B299">
+        <v>0.57875569508940949</v>
+      </c>
+      <c r="C299">
+        <v>0.45162771296868265</v>
+      </c>
+      <c r="D299">
+        <v>0.8947107154165258</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>0.18574449862793421</v>
+      </c>
+      <c r="B300">
+        <v>0.62168725873173081</v>
+      </c>
+      <c r="C300">
+        <v>0.3767767216564033</v>
+      </c>
+      <c r="D300">
+        <v>0.90717436013959529</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>0.084809402304183101</v>
+      </c>
+      <c r="B301">
+        <v>0.82104707743505134</v>
+      </c>
+      <c r="C301">
+        <v>0.4829355229886601</v>
+      </c>
+      <c r="D301">
+        <v>0.95759942266553266</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>0.064591066096832739</v>
+      </c>
+      <c r="B302">
+        <v>0.81258801282359872</v>
+      </c>
+      <c r="C302">
+        <v>0.65062658217194769</v>
+      </c>
+      <c r="D302">
+        <v>0.96777315926077712</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>0.086070895594705113</v>
+      </c>
+      <c r="B303">
+        <v>0.75812073162528337</v>
+      </c>
+      <c r="C303">
+        <v>0.63099848938364833</v>
+      </c>
+      <c r="D303">
+        <v>0.95722813341860957</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>0.029524991351649855</v>
+      </c>
+      <c r="B304">
+        <v>0.79628610644000453</v>
+      </c>
+      <c r="C304">
+        <v>0.83254858413978283</v>
+      </c>
+      <c r="D304">
+        <v>0.98524173593281061</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>0.065387376986864518</v>
+      </c>
+      <c r="B305">
+        <v>0.86430917148686104</v>
+      </c>
+      <c r="C305">
+        <v>0.53040759497938661</v>
+      </c>
+      <c r="D305">
+        <v>0.96732508318198673</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>0.026733169341210242</v>
+      </c>
+      <c r="B306">
+        <v>0.84899866804187885</v>
+      </c>
+      <c r="C306">
+        <v>0.80390176332675856</v>
+      </c>
+      <c r="D306">
+        <v>0.98663341532939497</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>0.027064057469490317</v>
+      </c>
+      <c r="B307">
+        <v>0.88353632111419034</v>
+      </c>
+      <c r="C307">
+        <v>0.75497576763651386</v>
+      </c>
+      <c r="D307">
+        <v>0.98646797126525476</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>0.1217238096280327</v>
+      </c>
+      <c r="B308">
+        <v>0.76803712448080497</v>
+      </c>
+      <c r="C308">
+        <v>0.47813297500786545</v>
+      </c>
+      <c r="D308">
+        <v>0.93938614634288709</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>0.022063119308093248</v>
+      </c>
+      <c r="B309">
+        <v>0.86813597977931301</v>
+      </c>
+      <c r="C309">
+        <v>0.81615562760709504</v>
+      </c>
+      <c r="D309">
+        <v>0.98896844034595344</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>0.019811836115326251</v>
+      </c>
+      <c r="B310">
+        <v>0.8690079124163449</v>
+      </c>
+      <c r="C310">
+        <v>0.83737312757817584</v>
+      </c>
+      <c r="D310">
+        <v>0.99009408194233683</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>0.038116643200386782</v>
+      </c>
+      <c r="B311">
+        <v>0.84823141711783434</v>
+      </c>
+      <c r="C311">
+        <v>0.73906514254004541</v>
+      </c>
+      <c r="D311">
+        <v>0.98094167839980662</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>0.044882534264467699</v>
+      </c>
+      <c r="B312">
+        <v>0.82566736558314291</v>
+      </c>
+      <c r="C312">
+        <v>0.72443037850699254</v>
+      </c>
+      <c r="D312">
+        <v>0.97757266505285523</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>0.022146915572983129</v>
+      </c>
+      <c r="B313">
+        <v>0.80229756677975717</v>
+      </c>
+      <c r="C313">
+        <v>0.87085680076673533</v>
+      </c>
+      <c r="D313">
+        <v>0.98893029815611377</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>0.032133420844482591</v>
+      </c>
+      <c r="B314">
+        <v>0.8512908548429382</v>
+      </c>
+      <c r="C314">
+        <v>0.7582235025647146</v>
+      </c>
+      <c r="D314">
+        <v>0.98393328957775861</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>0.029683312120985253</v>
+      </c>
+      <c r="B315">
+        <v>0.79738915313192482</v>
+      </c>
+      <c r="C315">
+        <v>0.82973411824616972</v>
+      </c>
+      <c r="D315">
+        <v>0.98515834393950741</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>0.027885845353094262</v>
+      </c>
+      <c r="B316">
+        <v>0.8099079582148726</v>
+      </c>
+      <c r="C316">
+        <v>0.83386386941952273</v>
+      </c>
+      <c r="D316">
+        <v>0.98605707732345294</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>0.048378003086449586</v>
+      </c>
+      <c r="B317">
+        <v>0.82893230289718833</v>
+      </c>
+      <c r="C317">
+        <v>0.70346602634322553</v>
+      </c>
+      <c r="D317">
+        <v>0.9758109984567751</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>0.037743030406317019</v>
+      </c>
+      <c r="B318">
+        <v>0.79311838217719544</v>
+      </c>
+      <c r="C318">
+        <v>0.79430202284436813</v>
+      </c>
+      <c r="D318">
+        <v>0.98114742069409533</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>0.032054176072234764</v>
+      </c>
+      <c r="B319">
+        <v>0.78828513437592573</v>
+      </c>
+      <c r="C319">
+        <v>0.82508898365899042</v>
+      </c>
+      <c r="D319">
+        <v>0.98397291196388259</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>0.13877697042967641</v>
+      </c>
+      <c r="B320">
+        <v>0.79756846985754826</v>
+      </c>
+      <c r="C320">
+        <v>0.3546208996380748</v>
+      </c>
+      <c r="D320">
+        <v>0.93096556913929007</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>0.161897344607625</v>
+      </c>
+      <c r="B321">
+        <v>0.68234502271534714</v>
+      </c>
+      <c r="C321">
+        <v>0.52049504104006694</v>
+      </c>
+      <c r="D321">
+        <v>0.92185012114918652</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>0.19605024605024601</v>
+      </c>
+      <c r="B322">
+        <v>0.69842560907259765</v>
+      </c>
+      <c r="C322">
+        <v>0.38489205113827402</v>
+      </c>
+      <c r="D322">
+        <v>0.90483898817232156</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>0.10333945523681419</v>
+      </c>
+      <c r="B323">
+        <v>0.80208727635337629</v>
+      </c>
+      <c r="C323">
+        <v>0.44687583533607744</v>
+      </c>
+      <c r="D323">
+        <v>0.94841074810810178</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>0.14402092947203957</v>
+      </c>
+      <c r="B324">
+        <v>0.68230977562386308</v>
+      </c>
+      <c r="C324">
+        <v>0.54256624000143672</v>
+      </c>
+      <c r="D324">
+        <v>0.93063902716713309</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>0.145934769947583</v>
+      </c>
+      <c r="B325">
+        <v>0.71651449851526172</v>
+      </c>
+      <c r="C325">
+        <v>0.51469120023174331</v>
+      </c>
+      <c r="D325">
+        <v>0.92906425936711312</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>0.11075576437022219</v>
+      </c>
+      <c r="B326">
+        <v>0.80520199583740837</v>
+      </c>
+      <c r="C326">
+        <v>0.41012923137243085</v>
+      </c>
+      <c r="D326">
+        <v>0.9447151540525035</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>0.17273396596858637</v>
+      </c>
+      <c r="B327">
+        <v>0.75564477471085956</v>
+      </c>
+      <c r="C327">
+        <v>0.33690012341222375</v>
+      </c>
+      <c r="D327">
+        <v>0.91464650596276909</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>0.15830489818381949</v>
+      </c>
+      <c r="B328">
+        <v>0.74919033740206797</v>
+      </c>
+      <c r="C328">
+        <v>0.38631845249219376</v>
+      </c>
+      <c r="D328">
+        <v>0.92194024032287669</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>0.10790820327817427</v>
+      </c>
+      <c r="B329">
+        <v>0.78428481081100954</v>
+      </c>
+      <c r="C329">
+        <v>0.51156908400754308</v>
+      </c>
+      <c r="D329">
+        <v>0.94651910471074152</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>0.070974067292583792</v>
+      </c>
+      <c r="B330">
+        <v>0.8037648887827098</v>
+      </c>
+      <c r="C330">
+        <v>0.61644233386041891</v>
+      </c>
+      <c r="D330">
+        <v>0.96451296635370809</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>0.14974972191323693</v>
+      </c>
+      <c r="B331">
+        <v>0.69474526513669921</v>
+      </c>
+      <c r="C331">
+        <v>0.49557583952728357</v>
+      </c>
+      <c r="D331">
+        <v>0.92658766942693527</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>0.17693519566067858</v>
+      </c>
+      <c r="B332">
+        <v>0.67100402851531205</v>
+      </c>
+      <c r="C332">
+        <v>0.46993295137607072</v>
+      </c>
+      <c r="D332">
+        <v>0.91455242818021298</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>0.15232171712552212</v>
+      </c>
+      <c r="B333">
+        <v>0.67481956998579806</v>
+      </c>
+      <c r="C333">
+        <v>0.53367787634314612</v>
+      </c>
+      <c r="D333">
+        <v>0.92654247588849248</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>0.20570145169687507</v>
+      </c>
+      <c r="B334">
+        <v>0.65510482738103271</v>
+      </c>
+      <c r="C334">
+        <v>0.47178523564203045</v>
+      </c>
+      <c r="D334">
+        <v>0.9047508061619427</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>0.065254873689585782</v>
+      </c>
+      <c r="B335">
+        <v>0.80447765494102552</v>
+      </c>
+      <c r="C335">
+        <v>0.65200744601406613</v>
+      </c>
+      <c r="D335">
+        <v>0.96738858350104628</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>0.19816377051938378</v>
+      </c>
+      <c r="B336">
+        <v>0.70603095944319472</v>
+      </c>
+      <c r="C336">
+        <v>0.36796962115565329</v>
+      </c>
+      <c r="D336">
+        <v>0.90344022640421073</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>0.13794406651549507</v>
+      </c>
+      <c r="B337">
+        <v>0.76314311104825638</v>
+      </c>
+      <c r="C337">
+        <v>0.41018008138279521</v>
+      </c>
+      <c r="D337">
+        <v>0.93135550516502885</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>0.27169446066662339</v>
+      </c>
+      <c r="B338">
+        <v>0.65928435880378855</v>
+      </c>
+      <c r="C338">
+        <v>0.34495371846575912</v>
+      </c>
+      <c r="D338">
+        <v>0.87438806336022623</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>0.33667700356517516</v>
+      </c>
+      <c r="B339">
+        <v>0.62448055275363967</v>
+      </c>
+      <c r="C339">
+        <v>0.31469252061408637</v>
+      </c>
+      <c r="D339">
+        <v>0.85127171979269944</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>0.14855755139639074</v>
+      </c>
+      <c r="B340">
+        <v>0.73508685629815129</v>
+      </c>
+      <c r="C340">
+        <v>0.48792462927465408</v>
+      </c>
+      <c r="D340">
+        <v>0.92742978501677176</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>0.26531627056672757</v>
+      </c>
+      <c r="B341">
+        <v>0.6023200722397366</v>
+      </c>
+      <c r="C341">
+        <v>0.30098962336323071</v>
+      </c>
+      <c r="D341">
+        <v>0.8686353849278895</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>0.27492068665244207</v>
+      </c>
+      <c r="B342">
+        <v>0.58532744062885866</v>
+      </c>
+      <c r="C342">
+        <v>0.29992092931850767</v>
+      </c>
+      <c r="D342">
+        <v>0.86438393601292784</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>0.23505392320106566</v>
+      </c>
+      <c r="B343">
+        <v>0.60901133499306082</v>
+      </c>
+      <c r="C343">
+        <v>0.35166415359926778</v>
+      </c>
+      <c r="D343">
+        <v>0.88319713775819519</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>0.22345317613063564</v>
+      </c>
+      <c r="B344">
+        <v>0.64292358456722987</v>
+      </c>
+      <c r="C344">
+        <v>0.32217762174052667</v>
+      </c>
+      <c r="D344">
+        <v>0.88912744236530028</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>0.13785206096000557</v>
+      </c>
+      <c r="B345">
+        <v>0.76465845033300683</v>
+      </c>
+      <c r="C345">
+        <v>0.37407175887235877</v>
+      </c>
+      <c r="D345">
+        <v>0.93116690647720812</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>0.078724177497927678</v>
+      </c>
+      <c r="B346">
+        <v>0.66355615458177497</v>
+      </c>
+      <c r="C346">
+        <v>0.71312726602188192</v>
+      </c>
+      <c r="D346">
+        <v>0.96063791125103615</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>0.098990705877601226</v>
+      </c>
+      <c r="B347">
+        <v>0.58970492693536369</v>
+      </c>
+      <c r="C347">
+        <v>0.68628762571792212</v>
+      </c>
+      <c r="D347">
+        <v>0.9506243202934388</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>0.083276632251575305</v>
+      </c>
+      <c r="B348">
+        <v>0.68402696083447245</v>
+      </c>
+      <c r="C348">
+        <v>0.67827696259218884</v>
+      </c>
+      <c r="D348">
+        <v>0.95837858854455027</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>0.06570408768500223</v>
+      </c>
+      <c r="B349">
+        <v>0.74545957322625545</v>
+      </c>
+      <c r="C349">
+        <v>0.69072506999861816</v>
+      </c>
+      <c r="D349">
+        <v>0.96714795615749893</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>0.23254358113593634</v>
+      </c>
+      <c r="B350">
+        <v>0.69893404425469219</v>
+      </c>
+      <c r="C350">
+        <v>0.2919300908780853</v>
+      </c>
+      <c r="D350">
+        <v>0.88586104899906681</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>0.097693518419900358</v>
+      </c>
+      <c r="B351">
+        <v>0.8061957044599638</v>
+      </c>
+      <c r="C351">
+        <v>0.45084362074398654</v>
+      </c>
+      <c r="D351">
+        <v>0.95116586391482538</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>0.070699775211507915</v>
+      </c>
+      <c r="B352">
+        <v>0.85869474772077425</v>
+      </c>
+      <c r="C352">
+        <v>0.45701148127538571</v>
+      </c>
+      <c r="D352">
+        <v>0.96465011239424592</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>0.20310088579751504</v>
+      </c>
+      <c r="B353">
+        <v>0.64310361317819609</v>
+      </c>
+      <c r="C353">
+        <v>0.41073917069580068</v>
+      </c>
+      <c r="D353">
+        <v>0.90031587499752297</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>0.12724107873813392</v>
+      </c>
+      <c r="B354">
+        <v>0.73304566183327491</v>
+      </c>
+      <c r="C354">
+        <v>0.46496859870127422</v>
+      </c>
+      <c r="D354">
+        <v>0.93653842587318281</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>0.11079304812979876</v>
+      </c>
+      <c r="B355">
+        <v>0.75737461855621335</v>
+      </c>
+      <c r="C355">
+        <v>0.48132447610688017</v>
+      </c>
+      <c r="D355">
+        <v>0.94461437057575448</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>0.10463808140011611</v>
+      </c>
+      <c r="B356">
+        <v>0.75453361427694576</v>
+      </c>
+      <c r="C356">
+        <v>0.50323133188033731</v>
+      </c>
+      <c r="D356">
+        <v>0.9476897056524396</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>0.097247272109002275</v>
+      </c>
+      <c r="B357">
+        <v>0.75700315020402309</v>
+      </c>
+      <c r="C357">
+        <v>0.5272681576949968</v>
+      </c>
+      <c r="D357">
+        <v>0.95140303443493579</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>0.10361936937638887</v>
+      </c>
+      <c r="B358">
+        <v>0.74433577817925878</v>
+      </c>
+      <c r="C358">
+        <v>0.52374700779976413</v>
+      </c>
+      <c r="D358">
+        <v>0.9482651149889203</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>0.11589599044398372</v>
+      </c>
+      <c r="B359">
+        <v>0.76454021415071594</v>
+      </c>
+      <c r="C359">
+        <v>0.45444621233631421</v>
+      </c>
+      <c r="D359">
+        <v>0.94210842085962898</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>0.11752063300351497</v>
+      </c>
+      <c r="B360">
+        <v>0.74895794099299473</v>
+      </c>
+      <c r="C360">
+        <v>0.4684795852458884</v>
+      </c>
+      <c r="D360">
+        <v>0.94128097531265653</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>0.072715696158100307</v>
+      </c>
+      <c r="B361">
+        <v>0.71566351393399297</v>
+      </c>
+      <c r="C361">
+        <v>0.68844690676179898</v>
+      </c>
+      <c r="D361">
+        <v>0.96364215192094982</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>0.1487027560822336</v>
+      </c>
+      <c r="B362">
+        <v>0.75571431636424879</v>
+      </c>
+      <c r="C362">
+        <v>0.36062630931741529</v>
+      </c>
+      <c r="D362">
+        <v>0.92564862195888331</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>0.24243904424634671</v>
+      </c>
+      <c r="B363">
+        <v>0.67310951656987561</v>
+      </c>
+      <c r="C363">
+        <v>0.28881587222516747</v>
+      </c>
+      <c r="D363">
+        <v>0.88048475791179426</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>0.12419385933817173</v>
+      </c>
+      <c r="B364">
+        <v>0.77792059692000581</v>
+      </c>
+      <c r="C364">
+        <v>0.39000367793489177</v>
+      </c>
+      <c r="D364">
+        <v>0.93796111453157294</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>0.1447967871485944</v>
+      </c>
+      <c r="B365">
+        <v>0.73552238189427099</v>
+      </c>
+      <c r="C365">
+        <v>0.37466028788955019</v>
+      </c>
+      <c r="D365">
+        <v>0.92760160642570288</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>0.10068427349722106</v>
+      </c>
+      <c r="B366">
+        <v>0.73123798448609645</v>
+      </c>
+      <c r="C366">
+        <v>0.54773768093162578</v>
+      </c>
+      <c r="D366">
+        <v>0.94965786325138946</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>0.12547286772419491</v>
+      </c>
+      <c r="B367">
+        <v>0.76242059891077107</v>
+      </c>
+      <c r="C367">
+        <v>0.38967573079798989</v>
+      </c>
+      <c r="D367">
+        <v>0.93726356613790252</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>0.15249178245237521</v>
+      </c>
+      <c r="B368">
+        <v>0.73883988115010757</v>
+      </c>
+      <c r="C368">
+        <v>0.37074457103965708</v>
+      </c>
+      <c r="D368">
+        <v>0.92375410877381237</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>0.085575868593258525</v>
+      </c>
+      <c r="B369">
+        <v>0.82010267413094684</v>
+      </c>
+      <c r="C369">
+        <v>0.4898969386163321</v>
+      </c>
+      <c r="D369">
+        <v>0.95721206570337081</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>0.12285317917125231</v>
+      </c>
+      <c r="B370">
+        <v>0.76754018909063515</v>
+      </c>
+      <c r="C370">
+        <v>0.42541597175192947</v>
+      </c>
+      <c r="D370">
+        <v>0.93857341041437392</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>0.099225022568982579</v>
+      </c>
+      <c r="B371">
+        <v>0.80367095398110722</v>
+      </c>
+      <c r="C371">
+        <v>0.43502574569002811</v>
+      </c>
+      <c r="D371">
+        <v>0.9503874887155086</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>0.1008424825777668</v>
+      </c>
+      <c r="B372">
+        <v>0.77258283431617469</v>
+      </c>
+      <c r="C372">
+        <v>0.49458779693501836</v>
+      </c>
+      <c r="D372">
+        <v>0.94957875871111663</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>0.13307663785973017</v>
+      </c>
+      <c r="B373">
+        <v>0.69241584715177817</v>
+      </c>
+      <c r="C373">
+        <v>0.52146033408941639</v>
+      </c>
+      <c r="D373">
+        <v>0.93349971002918719</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>0.2067740912328867</v>
+      </c>
+      <c r="B374">
+        <v>0.6986612698888407</v>
+      </c>
+      <c r="C374">
+        <v>0.32996126335436604</v>
+      </c>
+      <c r="D374">
+        <v>0.89753502390967888</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>0.079865980590644134</v>
+      </c>
+      <c r="B375">
+        <v>0.79472807823497282</v>
+      </c>
+      <c r="C375">
+        <v>0.60666047980436633</v>
+      </c>
+      <c r="D375">
+        <v>0.96006700970467784</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>0.15100831782274554</v>
+      </c>
+      <c r="B376">
+        <v>0.76086194791276918</v>
+      </c>
+      <c r="C376">
+        <v>0.38452289044566046</v>
+      </c>
+      <c r="D376">
+        <v>0.92460183730617529</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>0.18629060878935377</v>
+      </c>
+      <c r="B377">
+        <v>0.75128157607005008</v>
+      </c>
+      <c r="C377">
+        <v>0.31240392611311141</v>
+      </c>
+      <c r="D377">
+        <v>0.90743776552283839</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>0.10242199589736208</v>
+      </c>
+      <c r="B378">
+        <v>0.83434574896903813</v>
+      </c>
+      <c r="C378">
+        <v>0.40149802513083305</v>
+      </c>
+      <c r="D378">
+        <v>0.94879152752865004</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>0.11366578451725934</v>
+      </c>
+      <c r="B379">
+        <v>0.8213846106372108</v>
+      </c>
+      <c r="C379">
+        <v>0.38924993869299801</v>
+      </c>
+      <c r="D379">
+        <v>0.94317204629648477</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>0.070015840687938452</v>
+      </c>
+      <c r="B380">
+        <v>0.85257321422857346</v>
+      </c>
+      <c r="C380">
+        <v>0.48257001889079532</v>
+      </c>
+      <c r="D380">
+        <v>0.96499207965603073</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>0.072715696158100307</v>
+      </c>
+      <c r="B381">
+        <v>0.71566351393399297</v>
+      </c>
+      <c r="C381">
+        <v>0.68844690676179898</v>
+      </c>
+      <c r="D381">
+        <v>0.96364215192094982</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>0.1487027560822336</v>
+      </c>
+      <c r="B382">
+        <v>0.75571431636424879</v>
+      </c>
+      <c r="C382">
+        <v>0.36062630931741529</v>
+      </c>
+      <c r="D382">
+        <v>0.92564862195888331</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>0.24243904424634671</v>
+      </c>
+      <c r="B383">
+        <v>0.67310951656987561</v>
+      </c>
+      <c r="C383">
+        <v>0.28881587222516747</v>
+      </c>
+      <c r="D383">
+        <v>0.88048475791179426</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>0.12419385933817173</v>
+      </c>
+      <c r="B384">
+        <v>0.77792059692000581</v>
+      </c>
+      <c r="C384">
+        <v>0.39000367793489177</v>
+      </c>
+      <c r="D384">
+        <v>0.93796111453157294</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>0.1447967871485944</v>
+      </c>
+      <c r="B385">
+        <v>0.73552238189427099</v>
+      </c>
+      <c r="C385">
+        <v>0.37466028788955019</v>
+      </c>
+      <c r="D385">
+        <v>0.92760160642570288</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>0.10068427349722106</v>
+      </c>
+      <c r="B386">
+        <v>0.73123798448609645</v>
+      </c>
+      <c r="C386">
+        <v>0.54773768093162578</v>
+      </c>
+      <c r="D386">
+        <v>0.94965786325138946</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>0.12547286772419491</v>
+      </c>
+      <c r="B387">
+        <v>0.76242059891077107</v>
+      </c>
+      <c r="C387">
+        <v>0.38967573079798989</v>
+      </c>
+      <c r="D387">
+        <v>0.93726356613790252</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>0.15249178245237521</v>
+      </c>
+      <c r="B388">
+        <v>0.73883988115010757</v>
+      </c>
+      <c r="C388">
+        <v>0.37074457103965708</v>
+      </c>
+      <c r="D388">
+        <v>0.92375410877381237</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>0.085575868593258525</v>
+      </c>
+      <c r="B389">
+        <v>0.82010267413094684</v>
+      </c>
+      <c r="C389">
+        <v>0.4898969386163321</v>
+      </c>
+      <c r="D389">
+        <v>0.95721206570337081</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>0.12285317917125231</v>
+      </c>
+      <c r="B390">
+        <v>0.76754018909063515</v>
+      </c>
+      <c r="C390">
+        <v>0.42541597175192947</v>
+      </c>
+      <c r="D390">
+        <v>0.93857341041437392</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>0.099225022568982579</v>
+      </c>
+      <c r="B391">
+        <v>0.80367095398110722</v>
+      </c>
+      <c r="C391">
+        <v>0.43502574569002811</v>
+      </c>
+      <c r="D391">
+        <v>0.9503874887155086</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>0.1008424825777668</v>
+      </c>
+      <c r="B392">
+        <v>0.77258283431617469</v>
+      </c>
+      <c r="C392">
+        <v>0.49458779693501836</v>
+      </c>
+      <c r="D392">
+        <v>0.94957875871111663</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>0.13307663785973017</v>
+      </c>
+      <c r="B393">
+        <v>0.69241584715177817</v>
+      </c>
+      <c r="C393">
+        <v>0.52146033408941639</v>
+      </c>
+      <c r="D393">
+        <v>0.93349971002918719</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>0.2067740912328867</v>
+      </c>
+      <c r="B394">
+        <v>0.6986612698888407</v>
+      </c>
+      <c r="C394">
+        <v>0.32996126335436604</v>
+      </c>
+      <c r="D394">
+        <v>0.89753502390967888</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>0.079865980590644134</v>
+      </c>
+      <c r="B395">
+        <v>0.79472807823497282</v>
+      </c>
+      <c r="C395">
+        <v>0.60666047980436633</v>
+      </c>
+      <c r="D395">
+        <v>0.96006700970467784</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>0.15100831782274554</v>
+      </c>
+      <c r="B396">
+        <v>0.76086194791276918</v>
+      </c>
+      <c r="C396">
+        <v>0.38452289044566046</v>
+      </c>
+      <c r="D396">
+        <v>0.92460183730617529</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>0.18629060878935377</v>
+      </c>
+      <c r="B397">
+        <v>0.75128157607005008</v>
+      </c>
+      <c r="C397">
+        <v>0.31240392611311141</v>
+      </c>
+      <c r="D397">
+        <v>0.90743776552283839</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>0.10242199589736208</v>
+      </c>
+      <c r="B398">
+        <v>0.83434574896903813</v>
+      </c>
+      <c r="C398">
+        <v>0.40149802513083305</v>
+      </c>
+      <c r="D398">
+        <v>0.94879152752865004</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>0.11366578451725934</v>
+      </c>
+      <c r="B399">
+        <v>0.8213846106372108</v>
+      </c>
+      <c r="C399">
+        <v>0.38924993869299801</v>
+      </c>
+      <c r="D399">
+        <v>0.94317204629648477</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>0.070015840687938452</v>
+      </c>
+      <c r="B400">
+        <v>0.85257321422857346</v>
+      </c>
+      <c r="C400">
+        <v>0.48257001889079532</v>
+      </c>
+      <c r="D400">
+        <v>0.96499207965603073</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>